--- a/Code/Results/Cases/Case_4_59/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_59/res_bus/vm_pu.xlsx
@@ -417,192 +417,984 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>1.05</v>
+      </c>
+      <c r="C2">
+        <v>0.9807904616995696</v>
+      </c>
+      <c r="D2">
+        <v>1.001623522697853</v>
+      </c>
+      <c r="E2">
+        <v>0.9891018859402474</v>
+      </c>
+      <c r="F2">
+        <v>0.9895108089384305</v>
+      </c>
       <c r="G2">
         <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1.0342950855195</v>
+      </c>
+      <c r="J2">
+        <v>1.003561310491718</v>
+      </c>
+      <c r="K2">
+        <v>1.013060285515726</v>
+      </c>
+      <c r="L2">
+        <v>1.000715166188791</v>
+      </c>
+      <c r="M2">
+        <v>1.001118235289478</v>
+      </c>
+      <c r="N2">
+        <v>1.004986482662708</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>1.05</v>
+      </c>
+      <c r="C3">
+        <v>0.9900463254417216</v>
+      </c>
+      <c r="D3">
+        <v>1.008676094888532</v>
+      </c>
+      <c r="E3">
+        <v>0.9978005073096679</v>
+      </c>
+      <c r="F3">
+        <v>0.9987429553619938</v>
+      </c>
       <c r="G3">
         <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1.037120243265639</v>
+      </c>
+      <c r="J3">
+        <v>1.010812065270685</v>
+      </c>
+      <c r="K3">
+        <v>1.019199154135215</v>
+      </c>
+      <c r="L3">
+        <v>1.008461608630305</v>
+      </c>
+      <c r="M3">
+        <v>1.009391945617016</v>
+      </c>
+      <c r="N3">
+        <v>1.012247534345134</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>1.05</v>
+      </c>
+      <c r="C4">
+        <v>0.9958117723528692</v>
+      </c>
+      <c r="D4">
+        <v>1.013071407228877</v>
+      </c>
+      <c r="E4">
+        <v>1.003225485145575</v>
+      </c>
+      <c r="F4">
+        <v>1.00449985257043</v>
+      </c>
       <c r="G4">
         <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1.038865319034364</v>
+      </c>
+      <c r="J4">
+        <v>1.015323223597211</v>
+      </c>
+      <c r="K4">
+        <v>1.02301459073706</v>
+      </c>
+      <c r="L4">
+        <v>1.013285136663851</v>
+      </c>
+      <c r="M4">
+        <v>1.014544270036556</v>
+      </c>
+      <c r="N4">
+        <v>1.016765099033921</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>1.05</v>
+      </c>
+      <c r="C5">
+        <v>0.9981857828771068</v>
+      </c>
+      <c r="D5">
+        <v>1.014881616797902</v>
+      </c>
+      <c r="E5">
+        <v>1.005460790907482</v>
+      </c>
+      <c r="F5">
+        <v>1.006871771743837</v>
+      </c>
       <c r="G5">
         <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1.039580262190795</v>
+      </c>
+      <c r="J5">
+        <v>1.017179398039004</v>
+      </c>
+      <c r="K5">
+        <v>1.0245835094525</v>
+      </c>
+      <c r="L5">
+        <v>1.015270794790917</v>
+      </c>
+      <c r="M5">
+        <v>1.016665424393961</v>
+      </c>
+      <c r="N5">
+        <v>1.018623909456327</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>1.05</v>
+      </c>
+      <c r="C6">
+        <v>0.9985815724185337</v>
+      </c>
+      <c r="D6">
+        <v>1.01518342785223</v>
+      </c>
+      <c r="E6">
+        <v>1.005833540671677</v>
+      </c>
+      <c r="F6">
+        <v>1.007267294958753</v>
+      </c>
       <c r="G6">
         <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1.039699240472246</v>
+      </c>
+      <c r="J6">
+        <v>1.017488772474269</v>
+      </c>
+      <c r="K6">
+        <v>1.024844946442277</v>
+      </c>
+      <c r="L6">
+        <v>1.015601806959909</v>
+      </c>
+      <c r="M6">
+        <v>1.017019033225102</v>
+      </c>
+      <c r="N6">
+        <v>1.018933723238776</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>1.05</v>
+      </c>
+      <c r="C7">
+        <v>0.9958436849321879</v>
+      </c>
+      <c r="D7">
+        <v>1.013095739671168</v>
+      </c>
+      <c r="E7">
+        <v>1.003255527417985</v>
+      </c>
+      <c r="F7">
+        <v>1.004531731451594</v>
+      </c>
       <c r="G7">
         <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1.038874944098952</v>
+      </c>
+      <c r="J7">
+        <v>1.015348180695295</v>
+      </c>
+      <c r="K7">
+        <v>1.023035689544451</v>
+      </c>
+      <c r="L7">
+        <v>1.013311830937088</v>
+      </c>
+      <c r="M7">
+        <v>1.01457278525318</v>
+      </c>
+      <c r="N7">
+        <v>1.016790091573946</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>1.05</v>
+      </c>
+      <c r="C8">
+        <v>0.9839672568691076</v>
+      </c>
+      <c r="D8">
+        <v>1.004043504448814</v>
+      </c>
+      <c r="E8">
+        <v>0.9920859488557608</v>
+      </c>
+      <c r="F8">
+        <v>0.9926781011320811</v>
+      </c>
       <c r="G8">
         <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1.035267798218268</v>
+      </c>
+      <c r="J8">
+        <v>1.006050982331878</v>
+      </c>
+      <c r="K8">
+        <v>1.015168981064873</v>
+      </c>
+      <c r="L8">
+        <v>1.003374198997981</v>
+      </c>
+      <c r="M8">
+        <v>1.003958174212407</v>
+      </c>
+      <c r="N8">
+        <v>1.00747969012245</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>1.05</v>
+      </c>
+      <c r="C9">
+        <v>0.9611302990282122</v>
+      </c>
+      <c r="D9">
+        <v>0.9866656626653399</v>
+      </c>
+      <c r="E9">
+        <v>0.9706687527854054</v>
+      </c>
+      <c r="F9">
+        <v>0.9699400025337269</v>
+      </c>
       <c r="G9">
         <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1.028214840170314</v>
+      </c>
+      <c r="J9">
+        <v>0.9881344747545807</v>
+      </c>
+      <c r="K9">
+        <v>0.9999788495284067</v>
+      </c>
+      <c r="L9">
+        <v>0.9842563374485729</v>
+      </c>
+      <c r="M9">
+        <v>0.9835403669080365</v>
+      </c>
+      <c r="N9">
+        <v>0.9895377390493406</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>1.05</v>
+      </c>
+      <c r="C10">
+        <v>0.9442965897128446</v>
+      </c>
+      <c r="D10">
+        <v>0.9738916657304005</v>
+      </c>
+      <c r="E10">
+        <v>0.9549328911318089</v>
+      </c>
+      <c r="F10">
+        <v>0.9532230516645946</v>
+      </c>
       <c r="G10">
         <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1.022943252307393</v>
+      </c>
+      <c r="J10">
+        <v>0.9749089176177367</v>
+      </c>
+      <c r="K10">
+        <v>0.9887488762057625</v>
+      </c>
+      <c r="L10">
+        <v>0.9701664837175437</v>
+      </c>
+      <c r="M10">
+        <v>0.9684915599390064</v>
+      </c>
+      <c r="N10">
+        <v>0.97629340010437</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>1.05</v>
+      </c>
+      <c r="C11">
+        <v>0.9365333626603077</v>
+      </c>
+      <c r="D11">
+        <v>0.9680135896405124</v>
+      </c>
+      <c r="E11">
+        <v>0.9476908765029624</v>
+      </c>
+      <c r="F11">
+        <v>0.9455258200081567</v>
+      </c>
       <c r="G11">
         <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1.020496915618904</v>
+      </c>
+      <c r="J11">
+        <v>0.9688074222910305</v>
+      </c>
+      <c r="K11">
+        <v>0.9835650292435629</v>
+      </c>
+      <c r="L11">
+        <v>0.9636716162379489</v>
+      </c>
+      <c r="M11">
+        <v>0.9615537403263499</v>
+      </c>
+      <c r="N11">
+        <v>0.9701832399544483</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>1.05</v>
+      </c>
+      <c r="C12">
+        <v>0.9335687084518515</v>
+      </c>
+      <c r="D12">
+        <v>0.9657712432595845</v>
+      </c>
+      <c r="E12">
+        <v>0.9449277857034795</v>
+      </c>
+      <c r="F12">
+        <v>0.9425883701280392</v>
+      </c>
       <c r="G12">
         <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1.019560620947611</v>
+      </c>
+      <c r="J12">
+        <v>0.9664772524067468</v>
+      </c>
+      <c r="K12">
+        <v>0.9815849660324552</v>
+      </c>
+      <c r="L12">
+        <v>0.9611920237367139</v>
+      </c>
+      <c r="M12">
+        <v>0.9589048302235244</v>
+      </c>
+      <c r="N12">
+        <v>0.9678497609616546</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>1.05</v>
+      </c>
+      <c r="C13">
+        <v>0.9342084837582642</v>
+      </c>
+      <c r="D13">
+        <v>0.9662550275932502</v>
+      </c>
+      <c r="E13">
+        <v>0.9455239448248006</v>
+      </c>
+      <c r="F13">
+        <v>0.9432221813403195</v>
+      </c>
       <c r="G13">
         <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1.019762764117357</v>
+      </c>
+      <c r="J13">
+        <v>0.9669801059203398</v>
+      </c>
+      <c r="K13">
+        <v>0.9820122797485975</v>
+      </c>
+      <c r="L13">
+        <v>0.9617270864548604</v>
+      </c>
+      <c r="M13">
+        <v>0.9594764400753647</v>
+      </c>
+      <c r="N13">
+        <v>0.968353328584915</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>1.05</v>
+      </c>
+      <c r="C14">
+        <v>0.9362900205991196</v>
+      </c>
+      <c r="D14">
+        <v>0.967829484019528</v>
+      </c>
+      <c r="E14">
+        <v>0.9474640262527249</v>
+      </c>
+      <c r="F14">
+        <v>0.9452846693183428</v>
+      </c>
       <c r="G14">
         <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1.020420104187738</v>
+      </c>
+      <c r="J14">
+        <v>0.9686161600364648</v>
+      </c>
+      <c r="K14">
+        <v>0.9834025103312284</v>
+      </c>
+      <c r="L14">
+        <v>0.9634680729351519</v>
+      </c>
+      <c r="M14">
+        <v>0.9613363028503228</v>
+      </c>
+      <c r="N14">
+        <v>0.9699917060855427</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>1.05</v>
+      </c>
+      <c r="C15">
+        <v>0.93756145751543</v>
+      </c>
+      <c r="D15">
+        <v>0.9687915167141768</v>
+      </c>
+      <c r="E15">
+        <v>0.9486493990118463</v>
+      </c>
+      <c r="F15">
+        <v>0.9465447387191934</v>
+      </c>
       <c r="G15">
         <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1.020821353149438</v>
+      </c>
+      <c r="J15">
+        <v>0.9696154826275857</v>
+      </c>
+      <c r="K15">
+        <v>0.9842516390877201</v>
+      </c>
+      <c r="L15">
+        <v>0.9645315952184784</v>
+      </c>
+      <c r="M15">
+        <v>0.9624724138715751</v>
+      </c>
+      <c r="N15">
+        <v>0.9709924478293671</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>14</v>
       </c>
+      <c r="B16">
+        <v>1.05</v>
+      </c>
+      <c r="C16">
+        <v>0.9448010260566468</v>
+      </c>
+      <c r="D16">
+        <v>0.9742739110272681</v>
+      </c>
+      <c r="E16">
+        <v>0.955403788705714</v>
+      </c>
+      <c r="F16">
+        <v>0.9537234631797321</v>
+      </c>
       <c r="G16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="I16">
+        <v>1.023101913741872</v>
+      </c>
+      <c r="J16">
+        <v>0.9753053508900814</v>
+      </c>
+      <c r="K16">
+        <v>0.9890856339098323</v>
+      </c>
+      <c r="L16">
+        <v>0.9705885857666565</v>
+      </c>
+      <c r="M16">
+        <v>0.9689424250569568</v>
+      </c>
+      <c r="N16">
+        <v>0.9766903963574329</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
+      <c r="B17">
+        <v>1.05</v>
+      </c>
+      <c r="C17">
+        <v>0.9492089349451789</v>
+      </c>
+      <c r="D17">
+        <v>0.9776155692020317</v>
+      </c>
+      <c r="E17">
+        <v>0.9595203198612779</v>
+      </c>
+      <c r="F17">
+        <v>0.9580975762665941</v>
+      </c>
       <c r="G17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="I17">
+        <v>1.024486663558362</v>
+      </c>
+      <c r="J17">
+        <v>0.9787692706483931</v>
+      </c>
+      <c r="K17">
+        <v>0.9920278019661208</v>
+      </c>
+      <c r="L17">
+        <v>0.9742773907676484</v>
+      </c>
+      <c r="M17">
+        <v>0.9728824850909009</v>
+      </c>
+      <c r="N17">
+        <v>0.9801592352791183</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
+      <c r="B18">
+        <v>1.05</v>
+      </c>
+      <c r="C18">
+        <v>0.9517350028957605</v>
+      </c>
+      <c r="D18">
+        <v>0.9795317620506464</v>
+      </c>
+      <c r="E18">
+        <v>0.9618807712666191</v>
+      </c>
+      <c r="F18">
+        <v>0.9606053922318984</v>
+      </c>
       <c r="G18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="I18">
+        <v>1.025278801485616</v>
+      </c>
+      <c r="J18">
+        <v>0.9807541356620779</v>
+      </c>
+      <c r="K18">
+        <v>0.9937134116478556</v>
+      </c>
+      <c r="L18">
+        <v>0.9763916154487414</v>
+      </c>
+      <c r="M18">
+        <v>0.9751406359768015</v>
+      </c>
+      <c r="N18">
+        <v>0.9821469190287896</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
+      <c r="B19">
+        <v>1.05</v>
+      </c>
+      <c r="C19">
+        <v>0.9525889631217948</v>
+      </c>
+      <c r="D19">
+        <v>0.9801797344413052</v>
+      </c>
+      <c r="E19">
+        <v>0.9626789674780641</v>
+      </c>
+      <c r="F19">
+        <v>0.9614533667824695</v>
+      </c>
       <c r="G19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="I19">
+        <v>1.02554634281415</v>
+      </c>
+      <c r="J19">
+        <v>0.9814250929679558</v>
+      </c>
+      <c r="K19">
+        <v>0.9942831583612282</v>
+      </c>
+      <c r="L19">
+        <v>0.9771063855153519</v>
+      </c>
+      <c r="M19">
+        <v>0.9759040525288152</v>
+      </c>
+      <c r="N19">
+        <v>0.9828188291710018</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
+      <c r="B20">
+        <v>1.05</v>
+      </c>
+      <c r="C20">
+        <v>0.9487407264462676</v>
+      </c>
+      <c r="D20">
+        <v>0.977260493383743</v>
+      </c>
+      <c r="E20">
+        <v>0.9590829175696445</v>
+      </c>
+      <c r="F20">
+        <v>0.9576328402503684</v>
+      </c>
       <c r="G20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="I20">
+        <v>1.024339722774978</v>
+      </c>
+      <c r="J20">
+        <v>0.9784013547136314</v>
+      </c>
+      <c r="K20">
+        <v>0.9917153323097468</v>
+      </c>
+      <c r="L20">
+        <v>0.9738855370700876</v>
+      </c>
+      <c r="M20">
+        <v>0.9724639498802349</v>
+      </c>
+      <c r="N20">
+        <v>0.9797907968615285</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
+      <c r="B21">
+        <v>1.05</v>
+      </c>
+      <c r="C21">
+        <v>0.9356793859475755</v>
+      </c>
+      <c r="D21">
+        <v>0.9673675355248634</v>
+      </c>
+      <c r="E21">
+        <v>0.9468948170866659</v>
+      </c>
+      <c r="F21">
+        <v>0.9446795663887206</v>
+      </c>
       <c r="G21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="I21">
+        <v>1.020227323537708</v>
+      </c>
+      <c r="J21">
+        <v>0.968136211938776</v>
+      </c>
+      <c r="K21">
+        <v>0.982994684826088</v>
+      </c>
+      <c r="L21">
+        <v>0.9629573200683944</v>
+      </c>
+      <c r="M21">
+        <v>0.9607906816118312</v>
+      </c>
+      <c r="N21">
+        <v>0.9695110764065048</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
+      <c r="B22">
+        <v>1.05</v>
+      </c>
+      <c r="C22">
+        <v>0.9269918619767876</v>
+      </c>
+      <c r="D22">
+        <v>0.9608018028391966</v>
+      </c>
+      <c r="E22">
+        <v>0.9388031188850154</v>
+      </c>
+      <c r="F22">
+        <v>0.9360758087430993</v>
+      </c>
       <c r="G22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="I22">
+        <v>1.017479945878393</v>
+      </c>
+      <c r="J22">
+        <v>0.9613080621865537</v>
+      </c>
+      <c r="K22">
+        <v>0.9771919389548627</v>
+      </c>
+      <c r="L22">
+        <v>0.9556928543697002</v>
+      </c>
+      <c r="M22">
+        <v>0.9530296761252726</v>
+      </c>
+      <c r="N22">
+        <v>0.9626732298984344</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
+      <c r="B23">
+        <v>1.05</v>
+      </c>
+      <c r="C23">
+        <v>0.9316461690126425</v>
+      </c>
+      <c r="D23">
+        <v>0.9643178516478762</v>
+      </c>
+      <c r="E23">
+        <v>0.9431367079313573</v>
+      </c>
+      <c r="F23">
+        <v>0.9406840618779762</v>
+      </c>
       <c r="G23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="I23">
+        <v>1.018952889810216</v>
+      </c>
+      <c r="J23">
+        <v>0.9649661710802677</v>
+      </c>
+      <c r="K23">
+        <v>0.9803008413939673</v>
+      </c>
+      <c r="L23">
+        <v>0.9595842717368031</v>
+      </c>
+      <c r="M23">
+        <v>0.9571872249194139</v>
+      </c>
+      <c r="N23">
+        <v>0.9663365337263685</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
+      <c r="B24">
+        <v>1.05</v>
+      </c>
+      <c r="C24">
+        <v>0.9489524280246874</v>
+      </c>
+      <c r="D24">
+        <v>0.9774210381505196</v>
+      </c>
+      <c r="E24">
+        <v>0.9592806858189554</v>
+      </c>
+      <c r="F24">
+        <v>0.9578429682772055</v>
+      </c>
       <c r="G24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="I24">
+        <v>1.024406166862109</v>
+      </c>
+      <c r="J24">
+        <v>0.978567709490047</v>
+      </c>
+      <c r="K24">
+        <v>0.9918566177095005</v>
+      </c>
+      <c r="L24">
+        <v>0.974062713859137</v>
+      </c>
+      <c r="M24">
+        <v>0.972653190967809</v>
+      </c>
+      <c r="N24">
+        <v>0.9799573878808079</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
+      <c r="B25">
+        <v>1.05</v>
+      </c>
+      <c r="C25">
+        <v>0.9672907504041367</v>
+      </c>
+      <c r="D25">
+        <v>0.9913487383673746</v>
+      </c>
+      <c r="E25">
+        <v>0.9764383619549375</v>
+      </c>
+      <c r="F25">
+        <v>0.9760668998436606</v>
+      </c>
       <c r="G25">
         <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1.030130204367434</v>
+      </c>
+      <c r="J25">
+        <v>0.9929713794815911</v>
+      </c>
+      <c r="K25">
+        <v>1.004082855211123</v>
+      </c>
+      <c r="L25">
+        <v>0.9894137964125292</v>
+      </c>
+      <c r="M25">
+        <v>0.9890484673666883</v>
+      </c>
+      <c r="N25">
+        <v>0.9943815127358638</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_59/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_59/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9807904616995696</v>
+        <v>1.061653693306699</v>
       </c>
       <c r="D2">
-        <v>1.001623522697853</v>
+        <v>1.070504997001856</v>
       </c>
       <c r="E2">
-        <v>0.9891018859402474</v>
+        <v>1.078185453173802</v>
       </c>
       <c r="F2">
-        <v>0.9895108089384305</v>
+        <v>1.082422832564652</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.0342950855195</v>
+        <v>1.071913279166324</v>
       </c>
       <c r="J2">
-        <v>1.003561310491718</v>
+        <v>1.082134700635079</v>
       </c>
       <c r="K2">
-        <v>1.013060285515726</v>
+        <v>1.081062287589264</v>
       </c>
       <c r="L2">
-        <v>1.000715166188791</v>
+        <v>1.088653291388276</v>
       </c>
       <c r="M2">
-        <v>1.001118235289478</v>
+        <v>1.092841989714362</v>
       </c>
       <c r="N2">
-        <v>1.004986482662708</v>
+        <v>1.083671456032566</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9900463254417216</v>
+        <v>1.068125147292899</v>
       </c>
       <c r="D3">
-        <v>1.008676094888532</v>
+        <v>1.075579413648362</v>
       </c>
       <c r="E3">
-        <v>0.9978005073096679</v>
+        <v>1.084140889018322</v>
       </c>
       <c r="F3">
-        <v>0.9987429553619938</v>
+        <v>1.08820136956726</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.037120243265639</v>
+        <v>1.074424027685527</v>
       </c>
       <c r="J3">
-        <v>1.010812065270685</v>
+        <v>1.086916491649549</v>
       </c>
       <c r="K3">
-        <v>1.019199154135215</v>
+        <v>1.085328631864967</v>
       </c>
       <c r="L3">
-        <v>1.008461608630305</v>
+        <v>1.093799514184131</v>
       </c>
       <c r="M3">
-        <v>1.009391945617016</v>
+        <v>1.09781763738996</v>
       </c>
       <c r="N3">
-        <v>1.012247534345134</v>
+        <v>1.088460037738755</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9958117723528692</v>
+        <v>1.072208435674484</v>
       </c>
       <c r="D4">
-        <v>1.013071407228877</v>
+        <v>1.078783498968153</v>
       </c>
       <c r="E4">
-        <v>1.003225485145575</v>
+        <v>1.087903331170672</v>
       </c>
       <c r="F4">
-        <v>1.00449985257043</v>
+        <v>1.091852157598192</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.038865319034364</v>
+        <v>1.075998377119692</v>
       </c>
       <c r="J4">
-        <v>1.015323223597211</v>
+        <v>1.089929515888402</v>
       </c>
       <c r="K4">
-        <v>1.02301459073706</v>
+        <v>1.088015710085757</v>
       </c>
       <c r="L4">
-        <v>1.013285136663851</v>
+        <v>1.097045115510357</v>
       </c>
       <c r="M4">
-        <v>1.014544270036556</v>
+        <v>1.100955355926045</v>
       </c>
       <c r="N4">
-        <v>1.016765099033921</v>
+        <v>1.091477340817626</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9981857828771068</v>
+        <v>1.073901283544238</v>
       </c>
       <c r="D5">
-        <v>1.014881616797902</v>
+        <v>1.08011232844834</v>
       </c>
       <c r="E5">
-        <v>1.005460790907482</v>
+        <v>1.08946425068852</v>
       </c>
       <c r="F5">
-        <v>1.006871771743837</v>
+        <v>1.093366770694177</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.039580262190795</v>
+        <v>1.07664866241935</v>
       </c>
       <c r="J5">
-        <v>1.017179398039004</v>
+        <v>1.091177617798183</v>
       </c>
       <c r="K5">
-        <v>1.0245835094525</v>
+        <v>1.089128502250494</v>
       </c>
       <c r="L5">
-        <v>1.015270794790917</v>
+        <v>1.098390266097551</v>
       </c>
       <c r="M5">
-        <v>1.016665424393961</v>
+        <v>1.102255714622119</v>
       </c>
       <c r="N5">
-        <v>1.018623909456327</v>
+        <v>1.092727215175279</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9985815724185337</v>
+        <v>1.074184159113058</v>
       </c>
       <c r="D6">
-        <v>1.01518342785223</v>
+        <v>1.080334402810457</v>
       </c>
       <c r="E6">
-        <v>1.005833540671677</v>
+        <v>1.08972514352567</v>
       </c>
       <c r="F6">
-        <v>1.007267294958753</v>
+        <v>1.0936199244855</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.039699240472246</v>
+        <v>1.076757182565278</v>
       </c>
       <c r="J6">
-        <v>1.017488772474269</v>
+        <v>1.091386113981677</v>
       </c>
       <c r="K6">
-        <v>1.024844946442277</v>
+        <v>1.089314377368261</v>
       </c>
       <c r="L6">
-        <v>1.015601806959909</v>
+        <v>1.098615015895313</v>
       </c>
       <c r="M6">
-        <v>1.017019033225102</v>
+        <v>1.102472975670545</v>
       </c>
       <c r="N6">
-        <v>1.018933723238776</v>
+        <v>1.092936007447267</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9958436849321879</v>
+        <v>1.0722311474832</v>
       </c>
       <c r="D7">
-        <v>1.013095739671168</v>
+        <v>1.078801325168424</v>
       </c>
       <c r="E7">
-        <v>1.003255527417985</v>
+        <v>1.087924268747947</v>
       </c>
       <c r="F7">
-        <v>1.004531731451594</v>
+        <v>1.091872473990476</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.038874944098952</v>
+        <v>1.076007111138908</v>
       </c>
       <c r="J7">
-        <v>1.015348180695295</v>
+        <v>1.089946264990997</v>
       </c>
       <c r="K7">
-        <v>1.023035689544451</v>
+        <v>1.08803064454628</v>
       </c>
       <c r="L7">
-        <v>1.013311830937088</v>
+        <v>1.097063164176858</v>
       </c>
       <c r="M7">
-        <v>1.01457278525318</v>
+        <v>1.100972803916216</v>
       </c>
       <c r="N7">
-        <v>1.016790091573946</v>
+        <v>1.091494113705868</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9839672568691076</v>
+        <v>1.063863053668757</v>
       </c>
       <c r="D8">
-        <v>1.004043504448814</v>
+        <v>1.072236884764864</v>
       </c>
       <c r="E8">
-        <v>0.9920859488557608</v>
+        <v>1.080217614241889</v>
       </c>
       <c r="F8">
-        <v>0.9926781011320811</v>
+        <v>1.084394602707732</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.035267798218268</v>
+        <v>1.072772497222875</v>
       </c>
       <c r="J8">
-        <v>1.006050982331878</v>
+        <v>1.083768051876902</v>
       </c>
       <c r="K8">
-        <v>1.015168981064873</v>
+        <v>1.082519810445689</v>
       </c>
       <c r="L8">
-        <v>1.003374198997981</v>
+        <v>1.090410503472859</v>
       </c>
       <c r="M8">
-        <v>1.003958174212407</v>
+        <v>1.094541018022138</v>
       </c>
       <c r="N8">
-        <v>1.00747969012245</v>
+        <v>1.0853071268205</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9611302990282122</v>
+        <v>1.04826235936411</v>
       </c>
       <c r="D9">
-        <v>0.9866656626653399</v>
+        <v>1.060020479180277</v>
       </c>
       <c r="E9">
-        <v>0.9706687527854054</v>
+        <v>1.065890757219844</v>
       </c>
       <c r="F9">
-        <v>0.9699400025337269</v>
+        <v>1.070494384718585</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.028214840170314</v>
+        <v>1.066665064173733</v>
       </c>
       <c r="J9">
-        <v>0.9881344747545807</v>
+        <v>1.072218847237274</v>
       </c>
       <c r="K9">
-        <v>0.9999788495284067</v>
+        <v>1.072209434225423</v>
       </c>
       <c r="L9">
-        <v>0.9842563374485729</v>
+        <v>1.077998179127965</v>
       </c>
       <c r="M9">
-        <v>0.9835403669080365</v>
+        <v>1.082538653883224</v>
       </c>
       <c r="N9">
-        <v>0.9895377390493406</v>
+        <v>1.073741520985572</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9442965897128446</v>
+        <v>1.037199273205531</v>
       </c>
       <c r="D10">
-        <v>0.9738916657304005</v>
+        <v>1.051377254223363</v>
       </c>
       <c r="E10">
-        <v>0.9549328911318089</v>
+        <v>1.055762644598988</v>
       </c>
       <c r="F10">
-        <v>0.9532230516645946</v>
+        <v>1.060669525442123</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.022943252307393</v>
+        <v>1.062284757837468</v>
       </c>
       <c r="J10">
-        <v>0.9749089176177367</v>
+        <v>1.064010949306992</v>
       </c>
       <c r="K10">
-        <v>0.9887488762057625</v>
+        <v>1.064876955620237</v>
       </c>
       <c r="L10">
-        <v>0.9701664837175437</v>
+        <v>1.069193140206335</v>
       </c>
       <c r="M10">
-        <v>0.9684915599390064</v>
+        <v>1.074023452399312</v>
       </c>
       <c r="N10">
-        <v>0.97629340010437</v>
+        <v>1.06552196689877</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9365333626603077</v>
+        <v>1.032229478655693</v>
       </c>
       <c r="D11">
-        <v>0.9680135896405124</v>
+        <v>1.047500525644458</v>
       </c>
       <c r="E11">
-        <v>0.9476908765029624</v>
+        <v>1.051221365699185</v>
       </c>
       <c r="F11">
-        <v>0.9455258200081567</v>
+        <v>1.056264797895303</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.020496915618904</v>
+        <v>1.060306089179302</v>
       </c>
       <c r="J11">
-        <v>0.9688074222910305</v>
+        <v>1.060320330445472</v>
       </c>
       <c r="K11">
-        <v>0.9835650292435629</v>
+        <v>1.061579001014721</v>
       </c>
       <c r="L11">
-        <v>0.9636716162379489</v>
+        <v>1.065237916604849</v>
       </c>
       <c r="M11">
-        <v>0.9615537403263499</v>
+        <v>1.070198308265544</v>
       </c>
       <c r="N11">
-        <v>0.9701832399544483</v>
+        <v>1.061826106935146</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9335687084518515</v>
+        <v>1.030354400383119</v>
       </c>
       <c r="D12">
-        <v>0.9657712432595845</v>
+        <v>1.046038877468757</v>
       </c>
       <c r="E12">
-        <v>0.9449277857034795</v>
+        <v>1.04950933461658</v>
       </c>
       <c r="F12">
-        <v>0.9425883701280392</v>
+        <v>1.054604349954879</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.019560620947611</v>
+        <v>1.059557976000288</v>
       </c>
       <c r="J12">
-        <v>0.9664772524067468</v>
+        <v>1.058927436985137</v>
       </c>
       <c r="K12">
-        <v>0.9815849660324552</v>
+        <v>1.060334181212558</v>
       </c>
       <c r="L12">
-        <v>0.9611920237367139</v>
+        <v>1.063745746101221</v>
       </c>
       <c r="M12">
-        <v>0.9589048302235244</v>
+        <v>1.068755205839788</v>
       </c>
       <c r="N12">
-        <v>0.9678497609616546</v>
+        <v>1.060431235406331</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9342084837582642</v>
+        <v>1.030757963244267</v>
       </c>
       <c r="D13">
-        <v>0.9662550275932502</v>
+        <v>1.046353411868145</v>
       </c>
       <c r="E13">
-        <v>0.9455239448248006</v>
+        <v>1.04987774226758</v>
       </c>
       <c r="F13">
-        <v>0.9432221813403195</v>
+        <v>1.054961652557023</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.019762764117357</v>
+        <v>1.059719058073071</v>
       </c>
       <c r="J13">
-        <v>0.9669801059203398</v>
+        <v>1.059227240507868</v>
       </c>
       <c r="K13">
-        <v>0.9820122797485975</v>
+        <v>1.060602118893237</v>
       </c>
       <c r="L13">
-        <v>0.9617270864548604</v>
+        <v>1.06406689117075</v>
       </c>
       <c r="M13">
-        <v>0.9594764400753647</v>
+        <v>1.069065790579972</v>
       </c>
       <c r="N13">
-        <v>0.968353328584915</v>
+        <v>1.060731464684453</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9362900205991196</v>
+        <v>1.032075090280988</v>
       </c>
       <c r="D14">
-        <v>0.967829484019528</v>
+        <v>1.047380156412121</v>
       </c>
       <c r="E14">
-        <v>0.9474640262527249</v>
+        <v>1.051080373765343</v>
       </c>
       <c r="F14">
-        <v>0.9452846693183428</v>
+        <v>1.056128051797383</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.020420104187738</v>
+        <v>1.06024452323338</v>
       </c>
       <c r="J14">
-        <v>0.9686161600364648</v>
+        <v>1.060205652245517</v>
       </c>
       <c r="K14">
-        <v>0.9834025103312284</v>
+        <v>1.061476516237644</v>
       </c>
       <c r="L14">
-        <v>0.9634680729351519</v>
+        <v>1.065115052864854</v>
       </c>
       <c r="M14">
-        <v>0.9613363028503228</v>
+        <v>1.070079484804207</v>
       </c>
       <c r="N14">
-        <v>0.9699917060855427</v>
+        <v>1.061711265878994</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.93756145751543</v>
+        <v>1.032882695757605</v>
       </c>
       <c r="D15">
-        <v>0.9687915167141768</v>
+        <v>1.048009850097247</v>
       </c>
       <c r="E15">
-        <v>0.9486493990118463</v>
+        <v>1.0518179588098</v>
       </c>
       <c r="F15">
-        <v>0.9465447387191934</v>
+        <v>1.056843429530629</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.020821353149438</v>
+        <v>1.060566511136992</v>
       </c>
       <c r="J15">
-        <v>0.9696154826275857</v>
+        <v>1.060805516316606</v>
       </c>
       <c r="K15">
-        <v>0.9842516390877201</v>
+        <v>1.062012593484438</v>
       </c>
       <c r="L15">
-        <v>0.9645315952184784</v>
+        <v>1.065757758214078</v>
       </c>
       <c r="M15">
-        <v>0.9624724138715751</v>
+        <v>1.070701055091731</v>
       </c>
       <c r="N15">
-        <v>0.9709924478293671</v>
+        <v>1.062311981825869</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9448010260566468</v>
+        <v>1.037525146064674</v>
       </c>
       <c r="D16">
-        <v>0.9742739110272681</v>
+        <v>1.051631588520911</v>
       </c>
       <c r="E16">
-        <v>0.955403788705714</v>
+        <v>1.056060603547016</v>
       </c>
       <c r="F16">
-        <v>0.9537234631797321</v>
+        <v>1.060958538519535</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.023101913741872</v>
+        <v>1.062414279402674</v>
       </c>
       <c r="J16">
-        <v>0.9753053508900814</v>
+        <v>1.064252880497209</v>
       </c>
       <c r="K16">
-        <v>0.9890856339098323</v>
+        <v>1.065093128255432</v>
       </c>
       <c r="L16">
-        <v>0.9705885857666565</v>
+        <v>1.069452498143201</v>
       </c>
       <c r="M16">
-        <v>0.9689424250569568</v>
+        <v>1.074274279066803</v>
       </c>
       <c r="N16">
-        <v>0.9766903963574329</v>
+        <v>1.065764241659027</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9492089349451789</v>
+        <v>1.040387769775645</v>
       </c>
       <c r="D17">
-        <v>0.9776155692020317</v>
+        <v>1.053866477199642</v>
       </c>
       <c r="E17">
-        <v>0.9595203198612779</v>
+        <v>1.058678991831216</v>
       </c>
       <c r="F17">
-        <v>0.9580975762665941</v>
+        <v>1.063498380189879</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.024486663558362</v>
+        <v>1.063550828412491</v>
       </c>
       <c r="J17">
-        <v>0.9787692706483931</v>
+        <v>1.066377738889558</v>
       </c>
       <c r="K17">
-        <v>0.9920278019661208</v>
+        <v>1.06699164523549</v>
       </c>
       <c r="L17">
-        <v>0.9742773907676484</v>
+        <v>1.071730855408749</v>
       </c>
       <c r="M17">
-        <v>0.9728824850909009</v>
+        <v>1.076477680631443</v>
       </c>
       <c r="N17">
-        <v>0.9801592352791183</v>
+        <v>1.067892117594017</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9517350028957605</v>
+        <v>1.04204033413577</v>
       </c>
       <c r="D18">
-        <v>0.9795317620506464</v>
+        <v>1.055157215117069</v>
       </c>
       <c r="E18">
-        <v>0.9618807712666191</v>
+        <v>1.060191357625901</v>
       </c>
       <c r="F18">
-        <v>0.9606053922318984</v>
+        <v>1.064965431272406</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.025278801485616</v>
+        <v>1.06420591009861</v>
       </c>
       <c r="J18">
-        <v>0.9807541356620779</v>
+        <v>1.067604068642543</v>
       </c>
       <c r="K18">
-        <v>0.9937134116478556</v>
+        <v>1.068087253355187</v>
       </c>
       <c r="L18">
-        <v>0.9763916154487414</v>
+        <v>1.073046141881244</v>
       </c>
       <c r="M18">
-        <v>0.9751406359768015</v>
+        <v>1.077749683821278</v>
       </c>
       <c r="N18">
-        <v>0.9821469190287896</v>
+        <v>1.069120188875913</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9525889631217948</v>
+        <v>1.0426009669132</v>
       </c>
       <c r="D19">
-        <v>0.9801797344413052</v>
+        <v>1.055595189612141</v>
       </c>
       <c r="E19">
-        <v>0.9626789674780641</v>
+        <v>1.060704560433638</v>
       </c>
       <c r="F19">
-        <v>0.9614533667824695</v>
+        <v>1.065463265643936</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.02554634281415</v>
+        <v>1.064427968795171</v>
       </c>
       <c r="J19">
-        <v>0.9814250929679558</v>
+        <v>1.06802004314144</v>
       </c>
       <c r="K19">
-        <v>0.9942831583612282</v>
+        <v>1.068458870488161</v>
       </c>
       <c r="L19">
-        <v>0.9771063855153519</v>
+        <v>1.073492352938984</v>
       </c>
       <c r="M19">
-        <v>0.9759040525288152</v>
+        <v>1.078181208734743</v>
       </c>
       <c r="N19">
-        <v>0.9828188291710018</v>
+        <v>1.069536754106312</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9487407264462676</v>
+        <v>1.040082426468098</v>
       </c>
       <c r="D20">
-        <v>0.977260493383743</v>
+        <v>1.053628032747727</v>
       </c>
       <c r="E20">
-        <v>0.9590829175696445</v>
+        <v>1.058399616719532</v>
       </c>
       <c r="F20">
-        <v>0.9576328402503684</v>
+        <v>1.063227380135883</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.024339722774978</v>
+        <v>1.06342970498114</v>
       </c>
       <c r="J20">
-        <v>0.9784013547136314</v>
+        <v>1.066151123473282</v>
       </c>
       <c r="K20">
-        <v>0.9917153323097468</v>
+        <v>1.066789178477854</v>
       </c>
       <c r="L20">
-        <v>0.9738855370700876</v>
+        <v>1.071487831233709</v>
       </c>
       <c r="M20">
-        <v>0.9724639498802349</v>
+        <v>1.07624265284768</v>
       </c>
       <c r="N20">
-        <v>0.9797907968615285</v>
+        <v>1.067665180357857</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9356793859475755</v>
+        <v>1.031688049965491</v>
       </c>
       <c r="D21">
-        <v>0.9673675355248634</v>
+        <v>1.047078416454998</v>
       </c>
       <c r="E21">
-        <v>0.9468948170866659</v>
+        <v>1.050726939726325</v>
       </c>
       <c r="F21">
-        <v>0.9446795663887206</v>
+        <v>1.055785262822616</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.020227323537708</v>
+        <v>1.060090156891288</v>
       </c>
       <c r="J21">
-        <v>0.968136211938776</v>
+        <v>1.059918155581096</v>
       </c>
       <c r="K21">
-        <v>0.982994684826088</v>
+        <v>1.061219586401487</v>
       </c>
       <c r="L21">
-        <v>0.9629573200683944</v>
+        <v>1.064807044649459</v>
       </c>
       <c r="M21">
-        <v>0.9607906816118312</v>
+        <v>1.069781605134569</v>
       </c>
       <c r="N21">
-        <v>0.9695110764065048</v>
+        <v>1.061423360936333</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9269918619767876</v>
+        <v>1.02624073355256</v>
       </c>
       <c r="D22">
-        <v>0.9608018028391966</v>
+        <v>1.042834243159828</v>
       </c>
       <c r="E22">
-        <v>0.9388031188850154</v>
+        <v>1.045756005442074</v>
       </c>
       <c r="F22">
-        <v>0.9360758087430993</v>
+        <v>1.050964320379108</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.017479945878393</v>
+        <v>1.057913906271402</v>
       </c>
       <c r="J22">
-        <v>0.9613080621865537</v>
+        <v>1.055870893496641</v>
       </c>
       <c r="K22">
-        <v>0.9771919389548627</v>
+        <v>1.057602365072057</v>
       </c>
       <c r="L22">
-        <v>0.9556928543697002</v>
+        <v>1.060472439441505</v>
       </c>
       <c r="M22">
-        <v>0.9530296761252726</v>
+        <v>1.065589538575974</v>
       </c>
       <c r="N22">
-        <v>0.9626732298984344</v>
+        <v>1.057370351275491</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9316461690126425</v>
+        <v>1.029145287817797</v>
       </c>
       <c r="D23">
-        <v>0.9643178516478762</v>
+        <v>1.045096662106882</v>
       </c>
       <c r="E23">
-        <v>0.9431367079313573</v>
+        <v>1.048405758837112</v>
       </c>
       <c r="F23">
-        <v>0.9406840618779762</v>
+        <v>1.053534056373026</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.018952889810216</v>
+        <v>1.059075134318426</v>
       </c>
       <c r="J23">
-        <v>0.9649661710802677</v>
+        <v>1.05802913864997</v>
       </c>
       <c r="K23">
-        <v>0.9803008413939673</v>
+        <v>1.059531345769206</v>
       </c>
       <c r="L23">
-        <v>0.9595842717368031</v>
+        <v>1.062783588873258</v>
       </c>
       <c r="M23">
-        <v>0.9571872249194139</v>
+        <v>1.067824687519731</v>
       </c>
       <c r="N23">
-        <v>0.9663365337263685</v>
+        <v>1.059531661384492</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C24">
-        <v>0.9489524280246874</v>
+        <v>1.040220450824416</v>
       </c>
       <c r="D24">
-        <v>0.9774210381505196</v>
+        <v>1.053735815084284</v>
       </c>
       <c r="E24">
-        <v>0.9592806858189554</v>
+        <v>1.058525900206412</v>
       </c>
       <c r="F24">
-        <v>0.9578429682772055</v>
+        <v>1.063349877754467</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.024406166862109</v>
+        <v>1.063484459637439</v>
       </c>
       <c r="J24">
-        <v>0.978567709490047</v>
+        <v>1.066253561485271</v>
       </c>
       <c r="K24">
-        <v>0.9918566177095005</v>
+        <v>1.066880700747797</v>
       </c>
       <c r="L24">
-        <v>0.974062713859137</v>
+        <v>1.071597685433122</v>
       </c>
       <c r="M24">
-        <v>0.972653190967809</v>
+        <v>1.076348892475945</v>
       </c>
       <c r="N24">
-        <v>0.9799573878808079</v>
+        <v>1.067767763843573</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9672907504041367</v>
+        <v>1.052405381763858</v>
       </c>
       <c r="D25">
-        <v>0.9913487383673746</v>
+        <v>1.063261727468292</v>
       </c>
       <c r="E25">
-        <v>0.9764383619549375</v>
+        <v>1.069690376917209</v>
       </c>
       <c r="F25">
-        <v>0.9760668998436606</v>
+        <v>1.074180629809249</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.030130204367434</v>
+        <v>1.068295661822624</v>
       </c>
       <c r="J25">
-        <v>0.9929713794815911</v>
+        <v>1.075289236511066</v>
       </c>
       <c r="K25">
-        <v>1.004082855211123</v>
+        <v>1.074951402293696</v>
       </c>
       <c r="L25">
-        <v>0.9894137964125292</v>
+        <v>1.081295258712846</v>
       </c>
       <c r="M25">
-        <v>0.9890484673666883</v>
+        <v>1.085727039322485</v>
       </c>
       <c r="N25">
-        <v>0.9943815127358638</v>
+        <v>1.076816270564311</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_59/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_59/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.061653693306699</v>
+        <v>1.092089594101554</v>
       </c>
       <c r="D2">
-        <v>1.070504997001856</v>
+        <v>1.0894326989828</v>
       </c>
       <c r="E2">
-        <v>1.078185453173802</v>
+        <v>1.103869260218573</v>
       </c>
       <c r="F2">
-        <v>1.082422832564652</v>
+        <v>1.106636349846574</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.071913279166324</v>
+        <v>1.066386861664593</v>
       </c>
       <c r="J2">
-        <v>1.082134700635079</v>
+        <v>1.096912042885264</v>
       </c>
       <c r="K2">
-        <v>1.081062287589264</v>
+        <v>1.092082831726952</v>
       </c>
       <c r="L2">
-        <v>1.088653291388276</v>
+        <v>1.106482848336906</v>
       </c>
       <c r="M2">
-        <v>1.092841989714362</v>
+        <v>1.109243050618817</v>
       </c>
       <c r="N2">
-        <v>1.083671456032566</v>
+        <v>1.098469783803731</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.068125147292899</v>
+        <v>1.09341973596796</v>
       </c>
       <c r="D3">
-        <v>1.075579413648362</v>
+        <v>1.090487402298105</v>
       </c>
       <c r="E3">
-        <v>1.084140889018322</v>
+        <v>1.105137986909428</v>
       </c>
       <c r="F3">
-        <v>1.08820136956726</v>
+        <v>1.107864071504002</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.074424027685527</v>
+        <v>1.066832309876386</v>
       </c>
       <c r="J3">
-        <v>1.086916491649549</v>
+        <v>1.09790610285978</v>
       </c>
       <c r="K3">
-        <v>1.085328631864967</v>
+        <v>1.092956903440685</v>
       </c>
       <c r="L3">
-        <v>1.093799514184131</v>
+        <v>1.107573085821558</v>
       </c>
       <c r="M3">
-        <v>1.09781763738996</v>
+        <v>1.110292876704602</v>
       </c>
       <c r="N3">
-        <v>1.088460037738755</v>
+        <v>1.099465255457431</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.072208435674484</v>
+        <v>1.094280119606616</v>
       </c>
       <c r="D4">
-        <v>1.078783498968153</v>
+        <v>1.091169495579245</v>
       </c>
       <c r="E4">
-        <v>1.087903331170672</v>
+        <v>1.105958914639338</v>
       </c>
       <c r="F4">
-        <v>1.091852157598192</v>
+        <v>1.108658422282863</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.075998377119692</v>
+        <v>1.067119146783773</v>
       </c>
       <c r="J4">
-        <v>1.089929515888402</v>
+        <v>1.098548460557073</v>
       </c>
       <c r="K4">
-        <v>1.088015710085757</v>
+        <v>1.093521507381645</v>
       </c>
       <c r="L4">
-        <v>1.097045115510357</v>
+        <v>1.108277948250959</v>
       </c>
       <c r="M4">
-        <v>1.100955355926045</v>
+        <v>1.110971537889316</v>
       </c>
       <c r="N4">
-        <v>1.091477340817626</v>
+        <v>1.100108525376334</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.073901283544238</v>
+        <v>1.094641754300481</v>
       </c>
       <c r="D5">
-        <v>1.08011232844834</v>
+        <v>1.091456160597114</v>
       </c>
       <c r="E5">
-        <v>1.08946425068852</v>
+        <v>1.106304029306156</v>
       </c>
       <c r="F5">
-        <v>1.093366770694177</v>
+        <v>1.108992353303799</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.07664866241935</v>
+        <v>1.067239399324075</v>
       </c>
       <c r="J5">
-        <v>1.091177617798183</v>
+        <v>1.09881830248133</v>
       </c>
       <c r="K5">
-        <v>1.089128502250494</v>
+        <v>1.093758634168894</v>
       </c>
       <c r="L5">
-        <v>1.098390266097551</v>
+        <v>1.108574132224351</v>
       </c>
       <c r="M5">
-        <v>1.102255714622119</v>
+        <v>1.111256694193149</v>
       </c>
       <c r="N5">
-        <v>1.092727215175279</v>
+        <v>1.100378750507075</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.074184159113058</v>
+        <v>1.094702470302718</v>
       </c>
       <c r="D6">
-        <v>1.080334402810457</v>
+        <v>1.091504287861353</v>
       </c>
       <c r="E6">
-        <v>1.08972514352567</v>
+        <v>1.106361975445337</v>
       </c>
       <c r="F6">
-        <v>1.0936199244855</v>
+        <v>1.109048421027386</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.076757182565278</v>
+        <v>1.067259570714494</v>
       </c>
       <c r="J6">
-        <v>1.091386113981677</v>
+        <v>1.098863598148924</v>
       </c>
       <c r="K6">
-        <v>1.089314377368261</v>
+        <v>1.093798435201387</v>
       </c>
       <c r="L6">
-        <v>1.098615015895313</v>
+        <v>1.108623854655178</v>
       </c>
       <c r="M6">
-        <v>1.102472975670545</v>
+        <v>1.111304564283213</v>
       </c>
       <c r="N6">
-        <v>1.092936007447267</v>
+        <v>1.100424110499712</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.0722311474832</v>
+        <v>1.09428495206079</v>
       </c>
       <c r="D7">
-        <v>1.078801325168424</v>
+        <v>1.091173326351024</v>
       </c>
       <c r="E7">
-        <v>1.087924268747947</v>
+        <v>1.105963526088795</v>
       </c>
       <c r="F7">
-        <v>1.091872473990476</v>
+        <v>1.108662884338139</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.076007111138908</v>
+        <v>1.067120754914101</v>
       </c>
       <c r="J7">
-        <v>1.089946264990997</v>
+        <v>1.098552067002112</v>
       </c>
       <c r="K7">
-        <v>1.08803064454628</v>
+        <v>1.093524676793722</v>
       </c>
       <c r="L7">
-        <v>1.097063164176858</v>
+        <v>1.108281906424014</v>
       </c>
       <c r="M7">
-        <v>1.100972803916216</v>
+        <v>1.110975348760043</v>
       </c>
       <c r="N7">
-        <v>1.091494113705868</v>
+        <v>1.100112136942939</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.063863053668757</v>
+        <v>1.092539187123266</v>
       </c>
       <c r="D8">
-        <v>1.072236884764864</v>
+        <v>1.089789218571944</v>
       </c>
       <c r="E8">
-        <v>1.080217614241889</v>
+        <v>1.104298038501546</v>
       </c>
       <c r="F8">
-        <v>1.084394602707732</v>
+        <v>1.107051279282909</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.072772497222875</v>
+        <v>1.066537692988744</v>
       </c>
       <c r="J8">
-        <v>1.083768051876902</v>
+        <v>1.097248170517343</v>
       </c>
       <c r="K8">
-        <v>1.082519810445689</v>
+        <v>1.092378432033182</v>
       </c>
       <c r="L8">
-        <v>1.090410503472859</v>
+        <v>1.106851423447334</v>
       </c>
       <c r="M8">
-        <v>1.094541018022138</v>
+        <v>1.109597979272928</v>
       </c>
       <c r="N8">
-        <v>1.0853071268205</v>
+        <v>1.098806388775602</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.04826235936411</v>
+        <v>1.089460442927776</v>
       </c>
       <c r="D9">
-        <v>1.060020479180277</v>
+        <v>1.087347333537505</v>
       </c>
       <c r="E9">
-        <v>1.065890757219844</v>
+        <v>1.101362958525146</v>
       </c>
       <c r="F9">
-        <v>1.070494384718585</v>
+        <v>1.104210818314531</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.066665064173733</v>
+        <v>1.065499514302322</v>
       </c>
       <c r="J9">
-        <v>1.072218847237274</v>
+        <v>1.094943820595392</v>
       </c>
       <c r="K9">
-        <v>1.072209434225423</v>
+        <v>1.09035103123919</v>
       </c>
       <c r="L9">
-        <v>1.077998179127965</v>
+        <v>1.10432608762668</v>
       </c>
       <c r="M9">
-        <v>1.082538653883224</v>
+        <v>1.107165840912621</v>
       </c>
       <c r="N9">
-        <v>1.073741520985572</v>
+        <v>1.096498766412449</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.037199273205531</v>
+        <v>1.087406091570049</v>
       </c>
       <c r="D10">
-        <v>1.051377254223363</v>
+        <v>1.085717347245777</v>
       </c>
       <c r="E10">
-        <v>1.055762644598988</v>
+        <v>1.099405909760585</v>
       </c>
       <c r="F10">
-        <v>1.060669525442123</v>
+        <v>1.102316638502384</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.062284757837468</v>
+        <v>1.064800106713958</v>
       </c>
       <c r="J10">
-        <v>1.064010949306992</v>
+        <v>1.093402945084932</v>
       </c>
       <c r="K10">
-        <v>1.064876955620237</v>
+        <v>1.088994235198173</v>
       </c>
       <c r="L10">
-        <v>1.069193140206335</v>
+        <v>1.102639278953636</v>
       </c>
       <c r="M10">
-        <v>1.074023452399312</v>
+        <v>1.105540906171477</v>
       </c>
       <c r="N10">
-        <v>1.06552196689877</v>
+        <v>1.094955702682024</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.032229478655693</v>
+        <v>1.086516052814854</v>
       </c>
       <c r="D11">
-        <v>1.047500525644458</v>
+        <v>1.085011031516255</v>
       </c>
       <c r="E11">
-        <v>1.051221365699185</v>
+        <v>1.098558375769961</v>
       </c>
       <c r="F11">
-        <v>1.056264797895303</v>
+        <v>1.101496279935233</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.060306089179302</v>
+        <v>1.064495512726316</v>
       </c>
       <c r="J11">
-        <v>1.060320330445472</v>
+        <v>1.092734599326018</v>
       </c>
       <c r="K11">
-        <v>1.061579001014721</v>
+        <v>1.088405471216606</v>
       </c>
       <c r="L11">
-        <v>1.065237916604849</v>
+        <v>1.101908071285194</v>
       </c>
       <c r="M11">
-        <v>1.070198308265544</v>
+        <v>1.104836431264255</v>
       </c>
       <c r="N11">
-        <v>1.061826106935146</v>
+        <v>1.094286407795471</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.030354400383119</v>
+        <v>1.086185375317449</v>
       </c>
       <c r="D12">
-        <v>1.046038877468757</v>
+        <v>1.084748593951356</v>
       </c>
       <c r="E12">
-        <v>1.04950933461658</v>
+        <v>1.098243543161337</v>
       </c>
       <c r="F12">
-        <v>1.054604349954879</v>
+        <v>1.101191534593718</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.059557976000288</v>
+        <v>1.06438210938171</v>
       </c>
       <c r="J12">
-        <v>1.058927436985137</v>
+        <v>1.092486172655384</v>
       </c>
       <c r="K12">
-        <v>1.060334181212558</v>
+        <v>1.088186586249891</v>
       </c>
       <c r="L12">
-        <v>1.063745746101221</v>
+        <v>1.101636344099622</v>
       </c>
       <c r="M12">
-        <v>1.068755205839788</v>
+        <v>1.104574625097515</v>
       </c>
       <c r="N12">
-        <v>1.060431235406331</v>
+        <v>1.09403762833047</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.030757963244267</v>
+        <v>1.086256310328542</v>
       </c>
       <c r="D13">
-        <v>1.046353411868145</v>
+        <v>1.084804891375932</v>
       </c>
       <c r="E13">
-        <v>1.04987774226758</v>
+        <v>1.098311076809781</v>
       </c>
       <c r="F13">
-        <v>1.054961652557023</v>
+        <v>1.101256904797879</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.059719058073071</v>
+        <v>1.064406446731952</v>
       </c>
       <c r="J13">
-        <v>1.059227240507868</v>
+        <v>1.092539468902688</v>
       </c>
       <c r="K13">
-        <v>1.060602118893237</v>
+        <v>1.08823354653275</v>
       </c>
       <c r="L13">
-        <v>1.06406689117075</v>
+        <v>1.101694636161781</v>
       </c>
       <c r="M13">
-        <v>1.069065790579972</v>
+        <v>1.104630789459532</v>
       </c>
       <c r="N13">
-        <v>1.060731464684453</v>
+        <v>1.094091000264559</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.032075090280988</v>
+        <v>1.086488720511649</v>
       </c>
       <c r="D14">
-        <v>1.047380156412121</v>
+        <v>1.084989339999231</v>
       </c>
       <c r="E14">
-        <v>1.051080373765343</v>
+        <v>1.098532352048238</v>
       </c>
       <c r="F14">
-        <v>1.056128051797383</v>
+        <v>1.101471090169638</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.06024452323338</v>
+        <v>1.064486144154724</v>
       </c>
       <c r="J14">
-        <v>1.060205652245517</v>
+        <v>1.092714067849934</v>
       </c>
       <c r="K14">
-        <v>1.061476516237644</v>
+        <v>1.088387382042323</v>
       </c>
       <c r="L14">
-        <v>1.065115052864854</v>
+        <v>1.101885612778239</v>
       </c>
       <c r="M14">
-        <v>1.070079484804207</v>
+        <v>1.104814793008782</v>
       </c>
       <c r="N14">
-        <v>1.061711265878994</v>
+        <v>1.094265847162336</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.032882695757605</v>
+        <v>1.086631905719014</v>
       </c>
       <c r="D15">
-        <v>1.048009850097247</v>
+        <v>1.085102974156891</v>
       </c>
       <c r="E15">
-        <v>1.0518179588098</v>
+        <v>1.098668684190163</v>
       </c>
       <c r="F15">
-        <v>1.056843429530629</v>
+        <v>1.101603053103107</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.060566511136992</v>
+        <v>1.064535213402711</v>
       </c>
       <c r="J15">
-        <v>1.060805516316606</v>
+        <v>1.092821620983728</v>
       </c>
       <c r="K15">
-        <v>1.062012593484438</v>
+        <v>1.088482139695774</v>
       </c>
       <c r="L15">
-        <v>1.065757758214078</v>
+        <v>1.102003263250726</v>
       </c>
       <c r="M15">
-        <v>1.070701055091731</v>
+        <v>1.104928145993691</v>
       </c>
       <c r="N15">
-        <v>1.062311981825869</v>
+        <v>1.094373553033917</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.037525146064674</v>
+        <v>1.087465149849415</v>
       </c>
       <c r="D16">
-        <v>1.051631588520911</v>
+        <v>1.085764211932558</v>
       </c>
       <c r="E16">
-        <v>1.056060603547016</v>
+        <v>1.099462155048659</v>
       </c>
       <c r="F16">
-        <v>1.060958538519535</v>
+        <v>1.102371079268992</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.062414279402674</v>
+        <v>1.064820284721106</v>
       </c>
       <c r="J16">
-        <v>1.064252880497209</v>
+        <v>1.093447276829501</v>
       </c>
       <c r="K16">
-        <v>1.065093128255432</v>
+        <v>1.089033282744559</v>
       </c>
       <c r="L16">
-        <v>1.069452498143201</v>
+        <v>1.102687789540714</v>
       </c>
       <c r="M16">
-        <v>1.074274279066803</v>
+        <v>1.105587641362063</v>
       </c>
       <c r="N16">
-        <v>1.065764241659027</v>
+        <v>1.095000097382754</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.040387769775645</v>
+        <v>1.08798768779886</v>
       </c>
       <c r="D17">
-        <v>1.053866477199642</v>
+        <v>1.086178847910918</v>
       </c>
       <c r="E17">
-        <v>1.058678991831216</v>
+        <v>1.099959844477965</v>
       </c>
       <c r="F17">
-        <v>1.063498380189879</v>
+        <v>1.102852795408749</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.063550828412491</v>
+        <v>1.064998634104153</v>
       </c>
       <c r="J17">
-        <v>1.066377738889558</v>
+        <v>1.093839428140078</v>
       </c>
       <c r="K17">
-        <v>1.06699164523549</v>
+        <v>1.089378660732298</v>
       </c>
       <c r="L17">
-        <v>1.071730855408749</v>
+        <v>1.103116956501675</v>
       </c>
       <c r="M17">
-        <v>1.076477680631443</v>
+        <v>1.106001091383975</v>
       </c>
       <c r="N17">
-        <v>1.067892117594017</v>
+        <v>1.095392805593173</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.04204033413577</v>
+        <v>1.088292428215283</v>
       </c>
       <c r="D18">
-        <v>1.055157215117069</v>
+        <v>1.086420647951529</v>
       </c>
       <c r="E18">
-        <v>1.060191357625901</v>
+        <v>1.100250127019694</v>
       </c>
       <c r="F18">
-        <v>1.064965431272406</v>
+        <v>1.103133756428462</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.06420591009861</v>
+        <v>1.065102493916001</v>
       </c>
       <c r="J18">
-        <v>1.067604068642543</v>
+        <v>1.094068053883354</v>
       </c>
       <c r="K18">
-        <v>1.068087253355187</v>
+        <v>1.08957999221841</v>
       </c>
       <c r="L18">
-        <v>1.073046141881244</v>
+        <v>1.103367204512432</v>
       </c>
       <c r="M18">
-        <v>1.077749683821278</v>
+        <v>1.106242166261267</v>
       </c>
       <c r="N18">
-        <v>1.069120188875913</v>
+        <v>1.095621756011228</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.0426009669132</v>
+        <v>1.088396328939506</v>
       </c>
       <c r="D19">
-        <v>1.055595189612141</v>
+        <v>1.086503087082899</v>
       </c>
       <c r="E19">
-        <v>1.060704560433638</v>
+        <v>1.100349104037583</v>
       </c>
       <c r="F19">
-        <v>1.065463265643936</v>
+        <v>1.103229554266518</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.064427968795171</v>
+        <v>1.065137878908421</v>
       </c>
       <c r="J19">
-        <v>1.06802004314144</v>
+        <v>1.09414599086033</v>
       </c>
       <c r="K19">
-        <v>1.068458870488161</v>
+        <v>1.089648620482985</v>
       </c>
       <c r="L19">
-        <v>1.073492352938984</v>
+        <v>1.103452519497688</v>
       </c>
       <c r="M19">
-        <v>1.078181208734743</v>
+        <v>1.1063243524721</v>
       </c>
       <c r="N19">
-        <v>1.069536754106312</v>
+        <v>1.095699803667651</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.040082426468098</v>
+        <v>1.087931629325024</v>
       </c>
       <c r="D20">
-        <v>1.053628032747727</v>
+        <v>1.086134366594594</v>
       </c>
       <c r="E20">
-        <v>1.058399616719532</v>
+        <v>1.099906448301294</v>
       </c>
       <c r="F20">
-        <v>1.063227380135883</v>
+        <v>1.102801113486314</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.06342970498114</v>
+        <v>1.064979516327914</v>
       </c>
       <c r="J20">
-        <v>1.066151123473282</v>
+        <v>1.093797365359459</v>
       </c>
       <c r="K20">
-        <v>1.066789178477854</v>
+        <v>1.08934161754231</v>
       </c>
       <c r="L20">
-        <v>1.071487831233709</v>
+        <v>1.103070919017606</v>
       </c>
       <c r="M20">
-        <v>1.07624265284768</v>
+        <v>1.105956740768059</v>
       </c>
       <c r="N20">
-        <v>1.067665180357857</v>
+        <v>1.095350683078581</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.031688049965491</v>
+        <v>1.086420283673829</v>
       </c>
       <c r="D21">
-        <v>1.047078416454998</v>
+        <v>1.08493502671552</v>
       </c>
       <c r="E21">
-        <v>1.050726939726325</v>
+        <v>1.098467192601541</v>
       </c>
       <c r="F21">
-        <v>1.055785262822616</v>
+        <v>1.10140801870068</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.060090156891288</v>
+        <v>1.06446268253636</v>
       </c>
       <c r="J21">
-        <v>1.059918155581096</v>
+        <v>1.092662657616133</v>
       </c>
       <c r="K21">
-        <v>1.061219586401487</v>
+        <v>1.08834208663123</v>
       </c>
       <c r="L21">
-        <v>1.064807044649459</v>
+        <v>1.101829378371765</v>
       </c>
       <c r="M21">
-        <v>1.069781605134569</v>
+        <v>1.10476061223625</v>
       </c>
       <c r="N21">
-        <v>1.061423360936333</v>
+        <v>1.094214363920107</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>1.02624073355256</v>
+        <v>1.085469590594577</v>
       </c>
       <c r="D22">
-        <v>1.042834243159828</v>
+        <v>1.084180487556215</v>
       </c>
       <c r="E22">
-        <v>1.045756005442074</v>
+        <v>1.097562153946839</v>
       </c>
       <c r="F22">
-        <v>1.050964320379108</v>
+        <v>1.100531963452384</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.057913906271402</v>
+        <v>1.064136203017912</v>
       </c>
       <c r="J22">
-        <v>1.055870893496641</v>
+        <v>1.09194821790543</v>
       </c>
       <c r="K22">
-        <v>1.057602365072057</v>
+        <v>1.087712531054345</v>
       </c>
       <c r="L22">
-        <v>1.060472439441505</v>
+        <v>1.101048053165789</v>
       </c>
       <c r="M22">
-        <v>1.065589538575974</v>
+        <v>1.104007789060033</v>
       </c>
       <c r="N22">
-        <v>1.057370351275491</v>
+        <v>1.093498909623067</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.029145287817797</v>
+        <v>1.085973614882724</v>
       </c>
       <c r="D23">
-        <v>1.045096662106882</v>
+        <v>1.084580528000757</v>
       </c>
       <c r="E23">
-        <v>1.048405758837112</v>
+        <v>1.098041944537435</v>
       </c>
       <c r="F23">
-        <v>1.053534056373026</v>
+        <v>1.100996393094812</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.059075134318426</v>
+        <v>1.064309421023483</v>
       </c>
       <c r="J23">
-        <v>1.05802913864997</v>
+        <v>1.092327051926735</v>
       </c>
       <c r="K23">
-        <v>1.059531345769206</v>
+        <v>1.088046376391461</v>
       </c>
       <c r="L23">
-        <v>1.062783588873258</v>
+        <v>1.101462317510605</v>
       </c>
       <c r="M23">
-        <v>1.067824687519731</v>
+        <v>1.104406948662481</v>
       </c>
       <c r="N23">
-        <v>1.059531661384492</v>
+        <v>1.093878281632135</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.040220450824416</v>
+        <v>1.087956959881865</v>
       </c>
       <c r="D24">
-        <v>1.053735815084284</v>
+        <v>1.086154465941613</v>
       </c>
       <c r="E24">
-        <v>1.058525900206412</v>
+        <v>1.099930575769962</v>
       </c>
       <c r="F24">
-        <v>1.063349877754467</v>
+        <v>1.102824466371425</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.063484459637439</v>
+        <v>1.064988155348294</v>
       </c>
       <c r="J24">
-        <v>1.066253561485271</v>
+        <v>1.093816372057694</v>
       </c>
       <c r="K24">
-        <v>1.066880700747797</v>
+        <v>1.089358356141225</v>
       </c>
       <c r="L24">
-        <v>1.071597685433122</v>
+        <v>1.10309172161541</v>
       </c>
       <c r="M24">
-        <v>1.076348892475945</v>
+        <v>1.105976781160404</v>
       </c>
       <c r="N24">
-        <v>1.067767763843573</v>
+        <v>1.095369716768507</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.052405381763858</v>
+        <v>1.090256685469825</v>
       </c>
       <c r="D25">
-        <v>1.063261727468292</v>
+        <v>1.087978975146308</v>
       </c>
       <c r="E25">
-        <v>1.069690376917209</v>
+        <v>1.102121794581025</v>
       </c>
       <c r="F25">
-        <v>1.074180629809249</v>
+        <v>1.104945230958514</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.068295661822624</v>
+        <v>1.065769188511708</v>
       </c>
       <c r="J25">
-        <v>1.075289236511066</v>
+        <v>1.095540359282055</v>
       </c>
       <c r="K25">
-        <v>1.074951402293696</v>
+        <v>1.090876070959051</v>
       </c>
       <c r="L25">
-        <v>1.081295258712846</v>
+        <v>1.104979510979176</v>
       </c>
       <c r="M25">
-        <v>1.085727039322485</v>
+        <v>1.107795216502089</v>
       </c>
       <c r="N25">
-        <v>1.076816270564311</v>
+        <v>1.097096152252471</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_59/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_59/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.092089594101554</v>
+        <v>1.061653693306697</v>
       </c>
       <c r="D2">
-        <v>1.0894326989828</v>
+        <v>1.070504997001854</v>
       </c>
       <c r="E2">
-        <v>1.103869260218573</v>
+        <v>1.0781854531738</v>
       </c>
       <c r="F2">
-        <v>1.106636349846574</v>
+        <v>1.08242283256465</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.066386861664593</v>
+        <v>1.071913279166323</v>
       </c>
       <c r="J2">
-        <v>1.096912042885264</v>
+        <v>1.082134700635077</v>
       </c>
       <c r="K2">
-        <v>1.092082831726952</v>
+        <v>1.081062287589262</v>
       </c>
       <c r="L2">
-        <v>1.106482848336906</v>
+        <v>1.088653291388273</v>
       </c>
       <c r="M2">
-        <v>1.109243050618817</v>
+        <v>1.09284198971436</v>
       </c>
       <c r="N2">
-        <v>1.098469783803731</v>
+        <v>1.083671456032564</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.09341973596796</v>
+        <v>1.0681251472929</v>
       </c>
       <c r="D3">
-        <v>1.090487402298105</v>
+        <v>1.075579413648362</v>
       </c>
       <c r="E3">
-        <v>1.105137986909428</v>
+        <v>1.084140889018322</v>
       </c>
       <c r="F3">
-        <v>1.107864071504002</v>
+        <v>1.08820136956726</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.066832309876386</v>
+        <v>1.074424027685527</v>
       </c>
       <c r="J3">
-        <v>1.09790610285978</v>
+        <v>1.086916491649549</v>
       </c>
       <c r="K3">
-        <v>1.092956903440685</v>
+        <v>1.085328631864968</v>
       </c>
       <c r="L3">
-        <v>1.107573085821558</v>
+        <v>1.093799514184131</v>
       </c>
       <c r="M3">
-        <v>1.110292876704602</v>
+        <v>1.09781763738996</v>
       </c>
       <c r="N3">
-        <v>1.099465255457431</v>
+        <v>1.088460037738755</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.094280119606616</v>
+        <v>1.072208435674486</v>
       </c>
       <c r="D4">
-        <v>1.091169495579245</v>
+        <v>1.078783498968154</v>
       </c>
       <c r="E4">
-        <v>1.105958914639338</v>
+        <v>1.087903331170673</v>
       </c>
       <c r="F4">
-        <v>1.108658422282863</v>
+        <v>1.091852157598192</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.067119146783773</v>
+        <v>1.075998377119693</v>
       </c>
       <c r="J4">
-        <v>1.098548460557073</v>
+        <v>1.089929515888403</v>
       </c>
       <c r="K4">
-        <v>1.093521507381645</v>
+        <v>1.088015710085757</v>
       </c>
       <c r="L4">
-        <v>1.108277948250959</v>
+        <v>1.097045115510358</v>
       </c>
       <c r="M4">
-        <v>1.110971537889316</v>
+        <v>1.100955355926045</v>
       </c>
       <c r="N4">
-        <v>1.100108525376334</v>
+        <v>1.091477340817627</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.094641754300481</v>
+        <v>1.073901283544238</v>
       </c>
       <c r="D5">
-        <v>1.091456160597114</v>
+        <v>1.08011232844834</v>
       </c>
       <c r="E5">
-        <v>1.106304029306156</v>
+        <v>1.089464250688519</v>
       </c>
       <c r="F5">
-        <v>1.108992353303799</v>
+        <v>1.093366770694175</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.067239399324075</v>
+        <v>1.07664866241935</v>
       </c>
       <c r="J5">
-        <v>1.09881830248133</v>
+        <v>1.091177617798183</v>
       </c>
       <c r="K5">
-        <v>1.093758634168894</v>
+        <v>1.089128502250493</v>
       </c>
       <c r="L5">
-        <v>1.108574132224351</v>
+        <v>1.09839026609755</v>
       </c>
       <c r="M5">
-        <v>1.111256694193149</v>
+        <v>1.102255714622118</v>
       </c>
       <c r="N5">
-        <v>1.100378750507075</v>
+        <v>1.092727215175278</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.094702470302718</v>
+        <v>1.074184159113058</v>
       </c>
       <c r="D6">
-        <v>1.091504287861353</v>
+        <v>1.080334402810457</v>
       </c>
       <c r="E6">
-        <v>1.106361975445337</v>
+        <v>1.089725143525671</v>
       </c>
       <c r="F6">
-        <v>1.109048421027386</v>
+        <v>1.0936199244855</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.067259570714494</v>
+        <v>1.076757182565278</v>
       </c>
       <c r="J6">
-        <v>1.098863598148924</v>
+        <v>1.091386113981677</v>
       </c>
       <c r="K6">
-        <v>1.093798435201387</v>
+        <v>1.089314377368262</v>
       </c>
       <c r="L6">
-        <v>1.108623854655178</v>
+        <v>1.098615015895314</v>
       </c>
       <c r="M6">
-        <v>1.111304564283213</v>
+        <v>1.102472975670545</v>
       </c>
       <c r="N6">
-        <v>1.100424110499712</v>
+        <v>1.092936007447268</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.09428495206079</v>
+        <v>1.072231147483199</v>
       </c>
       <c r="D7">
-        <v>1.091173326351024</v>
+        <v>1.078801325168423</v>
       </c>
       <c r="E7">
-        <v>1.105963526088795</v>
+        <v>1.087924268747945</v>
       </c>
       <c r="F7">
-        <v>1.108662884338139</v>
+        <v>1.091872473990474</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.067120754914101</v>
+        <v>1.076007111138907</v>
       </c>
       <c r="J7">
-        <v>1.098552067002112</v>
+        <v>1.089946264990996</v>
       </c>
       <c r="K7">
-        <v>1.093524676793722</v>
+        <v>1.088030644546279</v>
       </c>
       <c r="L7">
-        <v>1.108281906424014</v>
+        <v>1.097063164176857</v>
       </c>
       <c r="M7">
-        <v>1.110975348760043</v>
+        <v>1.100972803916214</v>
       </c>
       <c r="N7">
-        <v>1.100112136942939</v>
+        <v>1.091494113705867</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.092539187123266</v>
+        <v>1.063863053668756</v>
       </c>
       <c r="D8">
-        <v>1.089789218571944</v>
+        <v>1.072236884764864</v>
       </c>
       <c r="E8">
-        <v>1.104298038501546</v>
+        <v>1.080217614241889</v>
       </c>
       <c r="F8">
-        <v>1.107051279282909</v>
+        <v>1.084394602707731</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.066537692988744</v>
+        <v>1.072772497222875</v>
       </c>
       <c r="J8">
-        <v>1.097248170517343</v>
+        <v>1.083768051876901</v>
       </c>
       <c r="K8">
-        <v>1.092378432033182</v>
+        <v>1.082519810445689</v>
       </c>
       <c r="L8">
-        <v>1.106851423447334</v>
+        <v>1.090410503472858</v>
       </c>
       <c r="M8">
-        <v>1.109597979272928</v>
+        <v>1.094541018022138</v>
       </c>
       <c r="N8">
-        <v>1.098806388775602</v>
+        <v>1.085307126820499</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.089460442927776</v>
+        <v>1.04826235936411</v>
       </c>
       <c r="D9">
-        <v>1.087347333537505</v>
+        <v>1.060020479180277</v>
       </c>
       <c r="E9">
-        <v>1.101362958525146</v>
+        <v>1.065890757219844</v>
       </c>
       <c r="F9">
-        <v>1.104210818314531</v>
+        <v>1.070494384718585</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.065499514302322</v>
+        <v>1.066665064173733</v>
       </c>
       <c r="J9">
-        <v>1.094943820595392</v>
+        <v>1.072218847237274</v>
       </c>
       <c r="K9">
-        <v>1.09035103123919</v>
+        <v>1.072209434225422</v>
       </c>
       <c r="L9">
-        <v>1.10432608762668</v>
+        <v>1.077998179127965</v>
       </c>
       <c r="M9">
-        <v>1.107165840912621</v>
+        <v>1.082538653883224</v>
       </c>
       <c r="N9">
-        <v>1.096498766412449</v>
+        <v>1.073741520985571</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.087406091570049</v>
+        <v>1.037199273205529</v>
       </c>
       <c r="D10">
-        <v>1.085717347245777</v>
+        <v>1.051377254223361</v>
       </c>
       <c r="E10">
-        <v>1.099405909760585</v>
+        <v>1.055762644598986</v>
       </c>
       <c r="F10">
-        <v>1.102316638502384</v>
+        <v>1.060669525442121</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.064800106713958</v>
+        <v>1.062284757837467</v>
       </c>
       <c r="J10">
-        <v>1.093402945084932</v>
+        <v>1.06401094930699</v>
       </c>
       <c r="K10">
-        <v>1.088994235198173</v>
+        <v>1.064876955620236</v>
       </c>
       <c r="L10">
-        <v>1.102639278953636</v>
+        <v>1.069193140206333</v>
       </c>
       <c r="M10">
-        <v>1.105540906171477</v>
+        <v>1.074023452399311</v>
       </c>
       <c r="N10">
-        <v>1.094955702682024</v>
+        <v>1.065521966898768</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.086516052814854</v>
+        <v>1.03222947865569</v>
       </c>
       <c r="D11">
-        <v>1.085011031516255</v>
+        <v>1.047500525644455</v>
       </c>
       <c r="E11">
-        <v>1.098558375769961</v>
+        <v>1.051221365699182</v>
       </c>
       <c r="F11">
-        <v>1.101496279935233</v>
+        <v>1.0562647978953</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.064495512726316</v>
+        <v>1.0603060891793</v>
       </c>
       <c r="J11">
-        <v>1.092734599326018</v>
+        <v>1.060320330445469</v>
       </c>
       <c r="K11">
-        <v>1.088405471216606</v>
+        <v>1.061579001014718</v>
       </c>
       <c r="L11">
-        <v>1.101908071285194</v>
+        <v>1.065237916604846</v>
       </c>
       <c r="M11">
-        <v>1.104836431264255</v>
+        <v>1.070198308265541</v>
       </c>
       <c r="N11">
-        <v>1.094286407795471</v>
+        <v>1.061826106935144</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.086185375317449</v>
+        <v>1.030354400383121</v>
       </c>
       <c r="D12">
-        <v>1.084748593951356</v>
+        <v>1.046038877468759</v>
       </c>
       <c r="E12">
-        <v>1.098243543161337</v>
+        <v>1.049509334616582</v>
       </c>
       <c r="F12">
-        <v>1.101191534593718</v>
+        <v>1.054604349954881</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.06438210938171</v>
+        <v>1.059557976000289</v>
       </c>
       <c r="J12">
-        <v>1.092486172655384</v>
+        <v>1.05892743698514</v>
       </c>
       <c r="K12">
-        <v>1.088186586249891</v>
+        <v>1.06033418121256</v>
       </c>
       <c r="L12">
-        <v>1.101636344099622</v>
+        <v>1.063745746101223</v>
       </c>
       <c r="M12">
-        <v>1.104574625097515</v>
+        <v>1.06875520583979</v>
       </c>
       <c r="N12">
-        <v>1.09403762833047</v>
+        <v>1.060431235406333</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.086256310328542</v>
+        <v>1.030757963244269</v>
       </c>
       <c r="D13">
-        <v>1.084804891375932</v>
+        <v>1.046353411868147</v>
       </c>
       <c r="E13">
-        <v>1.098311076809781</v>
+        <v>1.049877742267583</v>
       </c>
       <c r="F13">
-        <v>1.101256904797879</v>
+        <v>1.054961652557026</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.064406446731952</v>
+        <v>1.059719058073073</v>
       </c>
       <c r="J13">
-        <v>1.092539468902688</v>
+        <v>1.059227240507871</v>
       </c>
       <c r="K13">
-        <v>1.08823354653275</v>
+        <v>1.060602118893239</v>
       </c>
       <c r="L13">
-        <v>1.101694636161781</v>
+        <v>1.064066891170752</v>
       </c>
       <c r="M13">
-        <v>1.104630789459532</v>
+        <v>1.069065790579974</v>
       </c>
       <c r="N13">
-        <v>1.094091000264559</v>
+        <v>1.060731464684455</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.086488720511649</v>
+        <v>1.032075090280989</v>
       </c>
       <c r="D14">
-        <v>1.084989339999231</v>
+        <v>1.047380156412122</v>
       </c>
       <c r="E14">
-        <v>1.098532352048238</v>
+        <v>1.051080373765345</v>
       </c>
       <c r="F14">
-        <v>1.101471090169638</v>
+        <v>1.056128051797385</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.064486144154724</v>
+        <v>1.060244523233381</v>
       </c>
       <c r="J14">
-        <v>1.092714067849934</v>
+        <v>1.060205652245519</v>
       </c>
       <c r="K14">
-        <v>1.088387382042323</v>
+        <v>1.061476516237646</v>
       </c>
       <c r="L14">
-        <v>1.101885612778239</v>
+        <v>1.065115052864856</v>
       </c>
       <c r="M14">
-        <v>1.104814793008782</v>
+        <v>1.070079484804209</v>
       </c>
       <c r="N14">
-        <v>1.094265847162336</v>
+        <v>1.061711265878996</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.086631905719014</v>
+        <v>1.032882695757605</v>
       </c>
       <c r="D15">
-        <v>1.085102974156891</v>
+        <v>1.048009850097246</v>
       </c>
       <c r="E15">
-        <v>1.098668684190163</v>
+        <v>1.0518179588098</v>
       </c>
       <c r="F15">
-        <v>1.101603053103107</v>
+        <v>1.056843429530629</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.064535213402711</v>
+        <v>1.060566511136991</v>
       </c>
       <c r="J15">
-        <v>1.092821620983728</v>
+        <v>1.060805516316606</v>
       </c>
       <c r="K15">
-        <v>1.088482139695774</v>
+        <v>1.062012593484438</v>
       </c>
       <c r="L15">
-        <v>1.102003263250726</v>
+        <v>1.065757758214078</v>
       </c>
       <c r="M15">
-        <v>1.104928145993691</v>
+        <v>1.070701055091731</v>
       </c>
       <c r="N15">
-        <v>1.094373553033917</v>
+        <v>1.062311981825869</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.087465149849415</v>
+        <v>1.037525146064672</v>
       </c>
       <c r="D16">
-        <v>1.085764211932558</v>
+        <v>1.051631588520909</v>
       </c>
       <c r="E16">
-        <v>1.099462155048659</v>
+        <v>1.056060603547013</v>
       </c>
       <c r="F16">
-        <v>1.102371079268992</v>
+        <v>1.060958538519532</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.064820284721106</v>
+        <v>1.062414279402673</v>
       </c>
       <c r="J16">
-        <v>1.093447276829501</v>
+        <v>1.064252880497206</v>
       </c>
       <c r="K16">
-        <v>1.089033282744559</v>
+        <v>1.06509312825543</v>
       </c>
       <c r="L16">
-        <v>1.102687789540714</v>
+        <v>1.069452498143198</v>
       </c>
       <c r="M16">
-        <v>1.105587641362063</v>
+        <v>1.074274279066801</v>
       </c>
       <c r="N16">
-        <v>1.095000097382754</v>
+        <v>1.065764241659024</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.08798768779886</v>
+        <v>1.040387769775646</v>
       </c>
       <c r="D17">
-        <v>1.086178847910918</v>
+        <v>1.053866477199643</v>
       </c>
       <c r="E17">
-        <v>1.099959844477965</v>
+        <v>1.058678991831217</v>
       </c>
       <c r="F17">
-        <v>1.102852795408749</v>
+        <v>1.063498380189879</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.064998634104153</v>
+        <v>1.063550828412492</v>
       </c>
       <c r="J17">
-        <v>1.093839428140078</v>
+        <v>1.066377738889559</v>
       </c>
       <c r="K17">
-        <v>1.089378660732298</v>
+        <v>1.066991645235491</v>
       </c>
       <c r="L17">
-        <v>1.103116956501675</v>
+        <v>1.07173085540875</v>
       </c>
       <c r="M17">
-        <v>1.106001091383975</v>
+        <v>1.076477680631444</v>
       </c>
       <c r="N17">
-        <v>1.095392805593173</v>
+        <v>1.067892117594018</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.088292428215283</v>
+        <v>1.042040334135772</v>
       </c>
       <c r="D18">
-        <v>1.086420647951529</v>
+        <v>1.055157215117071</v>
       </c>
       <c r="E18">
-        <v>1.100250127019694</v>
+        <v>1.060191357625903</v>
       </c>
       <c r="F18">
-        <v>1.103133756428462</v>
+        <v>1.064965431272408</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.065102493916001</v>
+        <v>1.064205910098611</v>
       </c>
       <c r="J18">
-        <v>1.094068053883354</v>
+        <v>1.067604068642544</v>
       </c>
       <c r="K18">
-        <v>1.08957999221841</v>
+        <v>1.068087253355188</v>
       </c>
       <c r="L18">
-        <v>1.103367204512432</v>
+        <v>1.073046141881245</v>
       </c>
       <c r="M18">
-        <v>1.106242166261267</v>
+        <v>1.07774968382128</v>
       </c>
       <c r="N18">
-        <v>1.095621756011228</v>
+        <v>1.069120188875915</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.088396328939506</v>
+        <v>1.042600966913201</v>
       </c>
       <c r="D19">
-        <v>1.086503087082899</v>
+        <v>1.055595189612142</v>
       </c>
       <c r="E19">
-        <v>1.100349104037583</v>
+        <v>1.060704560433639</v>
       </c>
       <c r="F19">
-        <v>1.103229554266518</v>
+        <v>1.065463265643938</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.065137878908421</v>
+        <v>1.064427968795172</v>
       </c>
       <c r="J19">
-        <v>1.09414599086033</v>
+        <v>1.068020043141441</v>
       </c>
       <c r="K19">
-        <v>1.089648620482985</v>
+        <v>1.068458870488162</v>
       </c>
       <c r="L19">
-        <v>1.103452519497688</v>
+        <v>1.073492352938985</v>
       </c>
       <c r="M19">
-        <v>1.1063243524721</v>
+        <v>1.078181208734745</v>
       </c>
       <c r="N19">
-        <v>1.095699803667651</v>
+        <v>1.069536754106313</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.087931629325024</v>
+        <v>1.040082426468096</v>
       </c>
       <c r="D20">
-        <v>1.086134366594594</v>
+        <v>1.053628032747726</v>
       </c>
       <c r="E20">
-        <v>1.099906448301294</v>
+        <v>1.058399616719531</v>
       </c>
       <c r="F20">
-        <v>1.102801113486314</v>
+        <v>1.063227380135881</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.064979516327914</v>
+        <v>1.063429704981139</v>
       </c>
       <c r="J20">
-        <v>1.093797365359459</v>
+        <v>1.06615112347328</v>
       </c>
       <c r="K20">
-        <v>1.08934161754231</v>
+        <v>1.066789178477853</v>
       </c>
       <c r="L20">
-        <v>1.103070919017606</v>
+        <v>1.071487831233707</v>
       </c>
       <c r="M20">
-        <v>1.105956740768059</v>
+        <v>1.076242652847678</v>
       </c>
       <c r="N20">
-        <v>1.095350683078581</v>
+        <v>1.067665180357855</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.086420283673829</v>
+        <v>1.031688049965491</v>
       </c>
       <c r="D21">
-        <v>1.08493502671552</v>
+        <v>1.047078416454998</v>
       </c>
       <c r="E21">
-        <v>1.098467192601541</v>
+        <v>1.050726939726324</v>
       </c>
       <c r="F21">
-        <v>1.10140801870068</v>
+        <v>1.055785262822615</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.06446268253636</v>
+        <v>1.060090156891287</v>
       </c>
       <c r="J21">
-        <v>1.092662657616133</v>
+        <v>1.059918155581095</v>
       </c>
       <c r="K21">
-        <v>1.08834208663123</v>
+        <v>1.061219586401486</v>
       </c>
       <c r="L21">
-        <v>1.101829378371765</v>
+        <v>1.064807044649458</v>
       </c>
       <c r="M21">
-        <v>1.10476061223625</v>
+        <v>1.069781605134567</v>
       </c>
       <c r="N21">
-        <v>1.094214363920107</v>
+        <v>1.061423360936332</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.085469590594577</v>
+        <v>1.026240733552562</v>
       </c>
       <c r="D22">
-        <v>1.084180487556215</v>
+        <v>1.04283424315983</v>
       </c>
       <c r="E22">
-        <v>1.097562153946839</v>
+        <v>1.045756005442076</v>
       </c>
       <c r="F22">
-        <v>1.100531963452384</v>
+        <v>1.050964320379111</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.064136203017912</v>
+        <v>1.057913906271403</v>
       </c>
       <c r="J22">
-        <v>1.09194821790543</v>
+        <v>1.055870893496643</v>
       </c>
       <c r="K22">
-        <v>1.087712531054345</v>
+        <v>1.057602365072058</v>
       </c>
       <c r="L22">
-        <v>1.101048053165789</v>
+        <v>1.060472439441508</v>
       </c>
       <c r="M22">
-        <v>1.104007789060033</v>
+        <v>1.065589538575977</v>
       </c>
       <c r="N22">
-        <v>1.093498909623067</v>
+        <v>1.057370351275493</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.085973614882724</v>
+        <v>1.029145287817797</v>
       </c>
       <c r="D23">
-        <v>1.084580528000757</v>
+        <v>1.045096662106881</v>
       </c>
       <c r="E23">
-        <v>1.098041944537435</v>
+        <v>1.048405758837112</v>
       </c>
       <c r="F23">
-        <v>1.100996393094812</v>
+        <v>1.053534056373026</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.064309421023483</v>
+        <v>1.059075134318426</v>
       </c>
       <c r="J23">
-        <v>1.092327051926735</v>
+        <v>1.05802913864997</v>
       </c>
       <c r="K23">
-        <v>1.088046376391461</v>
+        <v>1.059531345769206</v>
       </c>
       <c r="L23">
-        <v>1.101462317510605</v>
+        <v>1.062783588873258</v>
       </c>
       <c r="M23">
-        <v>1.104406948662481</v>
+        <v>1.067824687519731</v>
       </c>
       <c r="N23">
-        <v>1.093878281632135</v>
+        <v>1.059531661384491</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C24">
-        <v>1.087956959881865</v>
+        <v>1.040220450824416</v>
       </c>
       <c r="D24">
-        <v>1.086154465941613</v>
+        <v>1.053735815084284</v>
       </c>
       <c r="E24">
-        <v>1.099930575769962</v>
+        <v>1.058525900206413</v>
       </c>
       <c r="F24">
-        <v>1.102824466371425</v>
+        <v>1.063349877754467</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.064988155348294</v>
+        <v>1.063484459637439</v>
       </c>
       <c r="J24">
-        <v>1.093816372057694</v>
+        <v>1.066253561485272</v>
       </c>
       <c r="K24">
-        <v>1.089358356141225</v>
+        <v>1.066880700747797</v>
       </c>
       <c r="L24">
-        <v>1.10309172161541</v>
+        <v>1.071597685433122</v>
       </c>
       <c r="M24">
-        <v>1.105976781160404</v>
+        <v>1.076348892475945</v>
       </c>
       <c r="N24">
-        <v>1.095369716768507</v>
+        <v>1.067767763843573</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.090256685469825</v>
+        <v>1.052405381763857</v>
       </c>
       <c r="D25">
-        <v>1.087978975146308</v>
+        <v>1.063261727468292</v>
       </c>
       <c r="E25">
-        <v>1.102121794581025</v>
+        <v>1.069690376917207</v>
       </c>
       <c r="F25">
-        <v>1.104945230958514</v>
+        <v>1.074180629809248</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.065769188511708</v>
+        <v>1.068295661822623</v>
       </c>
       <c r="J25">
-        <v>1.095540359282055</v>
+        <v>1.075289236511065</v>
       </c>
       <c r="K25">
-        <v>1.090876070959051</v>
+        <v>1.074951402293695</v>
       </c>
       <c r="L25">
-        <v>1.104979510979176</v>
+        <v>1.081295258712845</v>
       </c>
       <c r="M25">
-        <v>1.107795216502089</v>
+        <v>1.085727039322485</v>
       </c>
       <c r="N25">
-        <v>1.097096152252471</v>
+        <v>1.07681627056431</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_59/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_59/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.061653693306697</v>
+        <v>0.9946780393456625</v>
       </c>
       <c r="D2">
-        <v>1.070504997001854</v>
+        <v>1.016584984238128</v>
       </c>
       <c r="E2">
-        <v>1.0781854531738</v>
+        <v>1.002889978806127</v>
       </c>
       <c r="F2">
-        <v>1.08242283256465</v>
+        <v>1.022947605531625</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.071913279166323</v>
+        <v>1.042455544948656</v>
       </c>
       <c r="J2">
-        <v>1.082134700635077</v>
+        <v>1.017019102945388</v>
       </c>
       <c r="K2">
-        <v>1.081062287589262</v>
+        <v>1.027817999888056</v>
       </c>
       <c r="L2">
-        <v>1.088653291388273</v>
+        <v>1.014309197932336</v>
       </c>
       <c r="M2">
-        <v>1.09284198971436</v>
+        <v>1.034096239336654</v>
       </c>
       <c r="N2">
-        <v>1.083671456032564</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.009543231250813</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.035557259621319</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.030739871158727</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.0681251472929</v>
+        <v>0.9984026196849948</v>
       </c>
       <c r="D3">
-        <v>1.075579413648362</v>
+        <v>1.018944905741152</v>
       </c>
       <c r="E3">
-        <v>1.084140889018322</v>
+        <v>1.006107541096225</v>
       </c>
       <c r="F3">
-        <v>1.08820136956726</v>
+        <v>1.025634655076606</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.074424027685527</v>
+        <v>1.043057171019367</v>
       </c>
       <c r="J3">
-        <v>1.086916491649549</v>
+        <v>1.018936925823757</v>
       </c>
       <c r="K3">
-        <v>1.085328631864968</v>
+        <v>1.0293409882679</v>
       </c>
       <c r="L3">
-        <v>1.093799514184131</v>
+        <v>1.016662866725301</v>
       </c>
       <c r="M3">
-        <v>1.09781763738996</v>
+        <v>1.035949714678083</v>
       </c>
       <c r="N3">
-        <v>1.088460037738755</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.010200396975766</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.037024169715331</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.031814085948698</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.072208435674486</v>
+        <v>1.000771155600436</v>
       </c>
       <c r="D4">
-        <v>1.078783498968154</v>
+        <v>1.020449005620582</v>
       </c>
       <c r="E4">
-        <v>1.087903331170673</v>
+        <v>1.008159416046069</v>
       </c>
       <c r="F4">
-        <v>1.091852157598192</v>
+        <v>1.027349859323786</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.075998377119693</v>
+        <v>1.043430191311739</v>
       </c>
       <c r="J4">
-        <v>1.089929515888403</v>
+        <v>1.020155155688472</v>
       </c>
       <c r="K4">
-        <v>1.088015710085757</v>
+        <v>1.030306738088189</v>
       </c>
       <c r="L4">
-        <v>1.097045115510358</v>
+        <v>1.018160351562515</v>
       </c>
       <c r="M4">
-        <v>1.100955355926045</v>
+        <v>1.037129031891938</v>
       </c>
       <c r="N4">
-        <v>1.091477340817627</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.010617631608584</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.037957524137321</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.032497873002102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.073901283544238</v>
+        <v>1.00176017937079</v>
       </c>
       <c r="D5">
-        <v>1.08011232844834</v>
+        <v>1.021079964886067</v>
       </c>
       <c r="E5">
-        <v>1.089464250688519</v>
+        <v>1.009017943380499</v>
       </c>
       <c r="F5">
-        <v>1.093366770694175</v>
+        <v>1.028066811975354</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.07664866241935</v>
+        <v>1.043584958967494</v>
       </c>
       <c r="J5">
-        <v>1.091177617798183</v>
+        <v>1.0206648512675</v>
       </c>
       <c r="K5">
-        <v>1.089128502250493</v>
+        <v>1.030712066343389</v>
       </c>
       <c r="L5">
-        <v>1.09839026609755</v>
+        <v>1.018786833275966</v>
       </c>
       <c r="M5">
-        <v>1.102255714622118</v>
+        <v>1.037621483880129</v>
       </c>
       <c r="N5">
-        <v>1.092727215175278</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.010792418688677</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.03834726814286</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.032791720668191</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.074184159113058</v>
+        <v>1.001929256557006</v>
       </c>
       <c r="D6">
-        <v>1.080334402810457</v>
+        <v>1.021190458012555</v>
       </c>
       <c r="E6">
-        <v>1.089725143525671</v>
+        <v>1.009165245263408</v>
       </c>
       <c r="F6">
-        <v>1.0936199244855</v>
+        <v>1.028188536229256</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.076757182565278</v>
+        <v>1.043612911656723</v>
       </c>
       <c r="J6">
-        <v>1.091386113981677</v>
+        <v>1.020753608994484</v>
       </c>
       <c r="K6">
-        <v>1.089314377368262</v>
+        <v>1.030784663458981</v>
       </c>
       <c r="L6">
-        <v>1.098615015895314</v>
+        <v>1.018895193509465</v>
       </c>
       <c r="M6">
-        <v>1.102472975670545</v>
+        <v>1.037705541378828</v>
       </c>
       <c r="N6">
-        <v>1.092936007447268</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.010823185109579</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.038413794213563</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.03285188365278</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,81 +698,105 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.072231147483199</v>
+        <v>1.000794021480286</v>
       </c>
       <c r="D7">
-        <v>1.078801325168423</v>
+        <v>1.020470503042795</v>
       </c>
       <c r="E7">
-        <v>1.087924268747945</v>
+        <v>1.008180479280899</v>
       </c>
       <c r="F7">
-        <v>1.091872473990474</v>
+        <v>1.027363933038369</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.076007111138907</v>
+        <v>1.043438159606376</v>
       </c>
       <c r="J7">
-        <v>1.089946264990996</v>
+        <v>1.020171354631502</v>
       </c>
       <c r="K7">
-        <v>1.088030644546279</v>
+        <v>1.030325068053034</v>
       </c>
       <c r="L7">
-        <v>1.097063164176857</v>
+        <v>1.01817819701728</v>
       </c>
       <c r="M7">
-        <v>1.100972803916214</v>
+        <v>1.037140052234788</v>
       </c>
       <c r="N7">
-        <v>1.091494113705867</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.010624094136376</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.037966246030648</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.032531143653977</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C8">
-        <v>1.063863053668756</v>
+        <v>0.9959575891994953</v>
       </c>
       <c r="D8">
-        <v>1.072236884764864</v>
+        <v>1.017403518791724</v>
       </c>
       <c r="E8">
-        <v>1.080217614241889</v>
+        <v>1.003995681815389</v>
       </c>
       <c r="F8">
-        <v>1.084394602707731</v>
+        <v>1.023866254026239</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.072772497222875</v>
+        <v>1.04266958695842</v>
       </c>
       <c r="J8">
-        <v>1.083768051876901</v>
+        <v>1.017683706592984</v>
       </c>
       <c r="K8">
-        <v>1.082519810445689</v>
+        <v>1.028352797767465</v>
       </c>
       <c r="L8">
-        <v>1.090410503472858</v>
+        <v>1.015121799718385</v>
       </c>
       <c r="M8">
-        <v>1.094541018022138</v>
+        <v>1.034732362064636</v>
       </c>
       <c r="N8">
-        <v>1.085307126820499</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.009772203245424</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.03606071141446</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.031141170036506</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.04826235936411</v>
+        <v>0.987087834147546</v>
       </c>
       <c r="D9">
-        <v>1.060020479180277</v>
+        <v>1.01179672181973</v>
       </c>
       <c r="E9">
-        <v>1.065890757219844</v>
+        <v>0.9963660182325382</v>
       </c>
       <c r="F9">
-        <v>1.070494384718585</v>
+        <v>1.017509194975325</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.066665064173733</v>
+        <v>1.041179075853985</v>
       </c>
       <c r="J9">
-        <v>1.072218847237274</v>
+        <v>1.013104941019432</v>
       </c>
       <c r="K9">
-        <v>1.072209434225422</v>
+        <v>1.024701261546332</v>
       </c>
       <c r="L9">
-        <v>1.077998179127965</v>
+        <v>1.009518330697512</v>
       </c>
       <c r="M9">
-        <v>1.082538653883224</v>
+        <v>1.030324444343445</v>
       </c>
       <c r="N9">
-        <v>1.073741520985571</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.008201153265152</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.032572109802721</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.028556028383424</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.037199273205529</v>
+        <v>0.9809934170825549</v>
       </c>
       <c r="D10">
-        <v>1.051377254223361</v>
+        <v>1.007977035873139</v>
       </c>
       <c r="E10">
-        <v>1.055762644598986</v>
+        <v>0.9911656464524525</v>
       </c>
       <c r="F10">
-        <v>1.060669525442121</v>
+        <v>1.013356509099888</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.062284757837467</v>
+        <v>1.040134125681579</v>
       </c>
       <c r="J10">
-        <v>1.06401094930699</v>
+        <v>1.009981966385767</v>
       </c>
       <c r="K10">
-        <v>1.064876955620236</v>
+        <v>1.022203740823683</v>
       </c>
       <c r="L10">
-        <v>1.069193140206333</v>
+        <v>1.005696261141078</v>
       </c>
       <c r="M10">
-        <v>1.074023452399311</v>
+        <v>1.027488723735406</v>
       </c>
       <c r="N10">
-        <v>1.065521966898768</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.007133488310367</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.03037974730094</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.026807089774546</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.03222947865569</v>
+        <v>0.9787736304386965</v>
       </c>
       <c r="D11">
-        <v>1.047500525644455</v>
+        <v>1.006663069060126</v>
       </c>
       <c r="E11">
-        <v>1.051221365699182</v>
+        <v>0.9893444726991369</v>
       </c>
       <c r="F11">
-        <v>1.0562647978953</v>
+        <v>1.013248052876918</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.0603060891793</v>
+        <v>1.039946178750915</v>
       </c>
       <c r="J11">
-        <v>1.060320330445469</v>
+        <v>1.009056911293356</v>
       </c>
       <c r="K11">
-        <v>1.061579001014718</v>
+        <v>1.021460414167488</v>
       </c>
       <c r="L11">
-        <v>1.065237916604846</v>
+        <v>1.004470173707694</v>
       </c>
       <c r="M11">
-        <v>1.070198308265541</v>
+        <v>1.027924381463863</v>
       </c>
       <c r="N11">
-        <v>1.061826106935144</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.006856061488149</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.031164446096815</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.026314743455641</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.030354400383121</v>
+        <v>0.978096337674719</v>
       </c>
       <c r="D12">
-        <v>1.046038877468759</v>
+        <v>1.006285427180701</v>
       </c>
       <c r="E12">
-        <v>1.049509334616582</v>
+        <v>0.9888157252400821</v>
       </c>
       <c r="F12">
-        <v>1.054604349954881</v>
+        <v>1.013790494687613</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.059557976000289</v>
+        <v>1.039965834507534</v>
       </c>
       <c r="J12">
-        <v>1.05892743698514</v>
+        <v>1.00885752490416</v>
       </c>
       <c r="K12">
-        <v>1.06033418121256</v>
+        <v>1.021293190972696</v>
       </c>
       <c r="L12">
-        <v>1.063745746101223</v>
+        <v>1.004160381619319</v>
       </c>
       <c r="M12">
-        <v>1.06875520583979</v>
+        <v>1.02865817531274</v>
       </c>
       <c r="N12">
-        <v>1.060431235406333</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.006819551211711</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.032073544393039</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.026196508625946</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.030757963244269</v>
+        <v>0.9785723457787704</v>
       </c>
       <c r="D13">
-        <v>1.046353411868147</v>
+        <v>1.006617419986942</v>
       </c>
       <c r="E13">
-        <v>1.049877742267583</v>
+        <v>0.9892554981530614</v>
       </c>
       <c r="F13">
-        <v>1.054961652557026</v>
+        <v>1.014895230991903</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.059719058073073</v>
+        <v>1.040158199986036</v>
       </c>
       <c r="J13">
-        <v>1.059227240507871</v>
+        <v>1.00921603325671</v>
       </c>
       <c r="K13">
-        <v>1.060602118893239</v>
+        <v>1.021575317545756</v>
       </c>
       <c r="L13">
-        <v>1.064066891170752</v>
+        <v>1.00454674523249</v>
       </c>
       <c r="M13">
-        <v>1.069065790579974</v>
+        <v>1.029699424377036</v>
       </c>
       <c r="N13">
-        <v>1.060731464684455</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.006971528583896</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.033175092894753</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.026393463775876</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.032075090280989</v>
+        <v>0.9794252146428849</v>
       </c>
       <c r="D14">
-        <v>1.047380156412122</v>
+        <v>1.007170412443163</v>
       </c>
       <c r="E14">
-        <v>1.051080373765345</v>
+        <v>0.9899993428622346</v>
       </c>
       <c r="F14">
-        <v>1.056128051797385</v>
+        <v>1.015910323636776</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.060244523233381</v>
+        <v>1.040368919494112</v>
       </c>
       <c r="J14">
-        <v>1.060205652245519</v>
+        <v>1.009716622979301</v>
       </c>
       <c r="K14">
-        <v>1.061476516237646</v>
+        <v>1.021975153590101</v>
       </c>
       <c r="L14">
-        <v>1.065115052864856</v>
+        <v>1.005129573922927</v>
       </c>
       <c r="M14">
-        <v>1.070079484804209</v>
+        <v>1.03055488897007</v>
       </c>
       <c r="N14">
-        <v>1.061711265878996</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.007162393386271</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.034025439563225</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.026677608494973</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.032882695757605</v>
+        <v>0.9798911553997909</v>
       </c>
       <c r="D15">
-        <v>1.048009850097246</v>
+        <v>1.007467523216316</v>
       </c>
       <c r="E15">
-        <v>1.0518179588098</v>
+        <v>0.9903992448435804</v>
       </c>
       <c r="F15">
-        <v>1.056843429530629</v>
+        <v>1.01631266574224</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.060566511136991</v>
+        <v>1.040463686941691</v>
       </c>
       <c r="J15">
-        <v>1.060805516316606</v>
+        <v>1.009968775823022</v>
       </c>
       <c r="K15">
-        <v>1.062012593484438</v>
+        <v>1.022178820924262</v>
       </c>
       <c r="L15">
-        <v>1.065757758214078</v>
+        <v>1.005431568522852</v>
       </c>
       <c r="M15">
-        <v>1.070701055091731</v>
+        <v>1.030863112805501</v>
       </c>
       <c r="N15">
-        <v>1.062311981825869</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.007253155811754</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.034306745682865</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.026827550230275</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.037525146064672</v>
+        <v>0.982372893855761</v>
       </c>
       <c r="D16">
-        <v>1.051631588520909</v>
+        <v>1.009016674470494</v>
       </c>
       <c r="E16">
-        <v>1.056060603547013</v>
+        <v>0.9925047714444842</v>
       </c>
       <c r="F16">
-        <v>1.060958538519532</v>
+        <v>1.017905335641276</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.062414279402673</v>
+        <v>1.040882901219492</v>
       </c>
       <c r="J16">
-        <v>1.064252880497206</v>
+        <v>1.011224674867957</v>
       </c>
       <c r="K16">
-        <v>1.06509312825543</v>
+        <v>1.02318881113961</v>
       </c>
       <c r="L16">
-        <v>1.069452498143198</v>
+        <v>1.006973606175092</v>
       </c>
       <c r="M16">
-        <v>1.074274279066801</v>
+        <v>1.0319229069056</v>
       </c>
       <c r="N16">
-        <v>1.065764241659024</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.007676961695196</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.035105526416217</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.027544867973175</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.040387769775646</v>
+        <v>0.9838352511259822</v>
       </c>
       <c r="D17">
-        <v>1.053866477199643</v>
+        <v>1.00992017271102</v>
       </c>
       <c r="E17">
-        <v>1.058678991831217</v>
+        <v>0.9937367245550549</v>
       </c>
       <c r="F17">
-        <v>1.063498380189879</v>
+        <v>1.018593855286324</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.063550828412492</v>
+        <v>1.041093465413607</v>
       </c>
       <c r="J17">
-        <v>1.066377738889559</v>
+        <v>1.011929109482367</v>
       </c>
       <c r="K17">
-        <v>1.066991645235491</v>
+        <v>1.023756472698064</v>
       </c>
       <c r="L17">
-        <v>1.07173085540875</v>
+        <v>1.007855470184561</v>
       </c>
       <c r="M17">
-        <v>1.076477680631444</v>
+        <v>1.032283536432569</v>
       </c>
       <c r="N17">
-        <v>1.067892117594018</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.007903061433452</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.035260970886137</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.027948851607903</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.042040334135772</v>
+        <v>0.9845381217958011</v>
       </c>
       <c r="D18">
-        <v>1.055157215117071</v>
+        <v>1.010329974725195</v>
       </c>
       <c r="E18">
-        <v>1.060191357625903</v>
+        <v>0.9943083597044949</v>
       </c>
       <c r="F18">
-        <v>1.064965431272408</v>
+        <v>1.018458481104609</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.064205910098611</v>
+        <v>1.041127623204434</v>
       </c>
       <c r="J18">
-        <v>1.067604068642544</v>
+        <v>1.012198260785364</v>
       </c>
       <c r="K18">
-        <v>1.068087253355188</v>
+        <v>1.023972750220603</v>
       </c>
       <c r="L18">
-        <v>1.073046141881245</v>
+        <v>1.00822606686889</v>
       </c>
       <c r="M18">
-        <v>1.07774968382128</v>
+        <v>1.031966026165238</v>
       </c>
       <c r="N18">
-        <v>1.069120188875915</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.007970099080694</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.034771034851123</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.028090003169222</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.042600966913201</v>
+        <v>0.9845480013700961</v>
       </c>
       <c r="D19">
-        <v>1.055595189612142</v>
+        <v>1.010297354397755</v>
       </c>
       <c r="E19">
-        <v>1.060704560433639</v>
+        <v>0.9942761502329212</v>
       </c>
       <c r="F19">
-        <v>1.065463265643938</v>
+        <v>1.017523987814441</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.064427968795172</v>
+        <v>1.041001682863482</v>
       </c>
       <c r="J19">
-        <v>1.068020043141441</v>
+        <v>1.012069625582216</v>
       </c>
       <c r="K19">
-        <v>1.068458870488162</v>
+        <v>1.023877075227897</v>
       </c>
       <c r="L19">
-        <v>1.073492352938985</v>
+        <v>1.00812934333144</v>
       </c>
       <c r="M19">
-        <v>1.078181208734745</v>
+        <v>1.030983978889631</v>
       </c>
       <c r="N19">
-        <v>1.069536754106313</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.007896075955139</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.033666906064835</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.028028822858475</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.040082426468096</v>
+        <v>0.9825983689016601</v>
       </c>
       <c r="D20">
-        <v>1.053628032747726</v>
+        <v>1.008998554238415</v>
       </c>
       <c r="E20">
-        <v>1.058399616719531</v>
+        <v>0.9925363177653413</v>
       </c>
       <c r="F20">
-        <v>1.063227380135881</v>
+        <v>1.014449938139665</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.063429704981139</v>
+        <v>1.040424431088149</v>
       </c>
       <c r="J20">
-        <v>1.06615112347328</v>
+        <v>1.010816976417834</v>
       </c>
       <c r="K20">
-        <v>1.066789178477853</v>
+        <v>1.022884999106108</v>
       </c>
       <c r="L20">
-        <v>1.071487831233707</v>
+        <v>1.006711689036707</v>
       </c>
       <c r="M20">
-        <v>1.076242652847678</v>
+        <v>1.028243374030521</v>
       </c>
       <c r="N20">
-        <v>1.067665180357855</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.007421961071643</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.030966326343546</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.02733133655222</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.031688049965491</v>
+        <v>0.9779300818327912</v>
       </c>
       <c r="D21">
-        <v>1.047078416454998</v>
+        <v>1.006064538923979</v>
       </c>
       <c r="E21">
-        <v>1.050726939726324</v>
+        <v>0.9885520845102487</v>
       </c>
       <c r="F21">
-        <v>1.055785262822615</v>
+        <v>1.011010637543482</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.060090156891287</v>
+        <v>1.039566971101026</v>
       </c>
       <c r="J21">
-        <v>1.059918155581095</v>
+        <v>1.008380422050337</v>
       </c>
       <c r="K21">
-        <v>1.061219586401486</v>
+        <v>1.020931920483495</v>
       </c>
       <c r="L21">
-        <v>1.064807044649458</v>
+        <v>1.003753636112708</v>
       </c>
       <c r="M21">
-        <v>1.069781605134567</v>
+        <v>1.025786370035723</v>
       </c>
       <c r="N21">
-        <v>1.061423360936332</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.006581529550408</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.028980478923313</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.025953671886108</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.026240733552562</v>
+        <v>0.974956672286357</v>
       </c>
       <c r="D22">
-        <v>1.04283424315983</v>
+        <v>1.004198956297808</v>
       </c>
       <c r="E22">
-        <v>1.045756005442076</v>
+        <v>0.9860248343515716</v>
       </c>
       <c r="F22">
-        <v>1.050964320379111</v>
+        <v>1.00892071224058</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.057913906271403</v>
+        <v>1.039019902311938</v>
       </c>
       <c r="J22">
-        <v>1.055870893496643</v>
+        <v>1.006836798500897</v>
       </c>
       <c r="K22">
-        <v>1.057602365072058</v>
+        <v>1.019687687466889</v>
       </c>
       <c r="L22">
-        <v>1.060472439441508</v>
+        <v>1.001878320404732</v>
       </c>
       <c r="M22">
-        <v>1.065589538575977</v>
+        <v>1.02431749556505</v>
       </c>
       <c r="N22">
-        <v>1.057370351275493</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.006049941226944</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.027817943309127</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.025060256083144</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,81 +1546,105 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.029145287817797</v>
+        <v>0.9765294432788647</v>
       </c>
       <c r="D23">
-        <v>1.045096662106881</v>
+        <v>1.005179132870119</v>
       </c>
       <c r="E23">
-        <v>1.048405758837112</v>
+        <v>0.9873596163893982</v>
       </c>
       <c r="F23">
-        <v>1.053534056373026</v>
+        <v>1.010027423157972</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.059075134318426</v>
+        <v>1.0393063885003</v>
       </c>
       <c r="J23">
-        <v>1.05802913864997</v>
+        <v>1.007649347237809</v>
       </c>
       <c r="K23">
-        <v>1.059531345769206</v>
+        <v>1.020338233144382</v>
       </c>
       <c r="L23">
-        <v>1.062783588873258</v>
+        <v>1.00286698392705</v>
       </c>
       <c r="M23">
-        <v>1.067824687519731</v>
+        <v>1.025094545912826</v>
       </c>
       <c r="N23">
-        <v>1.059531661384491</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.006328744015244</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.02843293736071</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.025510477502683</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.040220450824416</v>
+        <v>0.9826142048961041</v>
       </c>
       <c r="D24">
-        <v>1.053735815084284</v>
+        <v>1.008992422404036</v>
       </c>
       <c r="E24">
-        <v>1.058525900206413</v>
+        <v>0.9925416301735378</v>
       </c>
       <c r="F24">
-        <v>1.063349877754467</v>
+        <v>1.014325313482067</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.063484459637439</v>
+        <v>1.040401715423219</v>
       </c>
       <c r="J24">
-        <v>1.066253561485272</v>
+        <v>1.010798331809568</v>
       </c>
       <c r="K24">
-        <v>1.066880700747797</v>
+        <v>1.02286344012811</v>
       </c>
       <c r="L24">
-        <v>1.071597685433122</v>
+        <v>1.006701001479081</v>
       </c>
       <c r="M24">
-        <v>1.076348892475945</v>
+        <v>1.028105445697121</v>
       </c>
       <c r="N24">
-        <v>1.067767763843573</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.007410659379756</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.030815899347756</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.027288370248181</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.052405381763857</v>
+        <v>0.9894376977473606</v>
       </c>
       <c r="D25">
-        <v>1.063261727468292</v>
+        <v>1.013289088295044</v>
       </c>
       <c r="E25">
-        <v>1.069690376917207</v>
+        <v>0.9983836510436395</v>
       </c>
       <c r="F25">
-        <v>1.074180629809248</v>
+        <v>1.019182889136029</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.068295661822623</v>
+        <v>1.041589074506345</v>
       </c>
       <c r="J25">
-        <v>1.075289236511065</v>
+        <v>1.014325830033419</v>
       </c>
       <c r="K25">
-        <v>1.074951402293695</v>
+        <v>1.025684552371698</v>
       </c>
       <c r="L25">
-        <v>1.081295258712845</v>
+        <v>1.011007110675443</v>
       </c>
       <c r="M25">
-        <v>1.085727039322485</v>
+        <v>1.031490538955201</v>
       </c>
       <c r="N25">
-        <v>1.07681627056431</v>
+        <v>1.008621832214035</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.033495005195203</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.029280190250727</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_59/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_59/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9946780393456625</v>
+        <v>0.9952219528648453</v>
       </c>
       <c r="D2">
-        <v>1.016584984238128</v>
+        <v>1.016868391228106</v>
       </c>
       <c r="E2">
-        <v>1.002889978806127</v>
+        <v>1.003430128440198</v>
       </c>
       <c r="F2">
-        <v>1.022947605531625</v>
+        <v>1.023163962647031</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.042455544948656</v>
+        <v>1.042585460263416</v>
       </c>
       <c r="J2">
-        <v>1.017019102945388</v>
+        <v>1.017546519776858</v>
       </c>
       <c r="K2">
-        <v>1.027817999888056</v>
+        <v>1.028097620082301</v>
       </c>
       <c r="L2">
-        <v>1.014309197932336</v>
+        <v>1.014841882081591</v>
       </c>
       <c r="M2">
-        <v>1.034096239336654</v>
+        <v>1.034309750230017</v>
       </c>
       <c r="N2">
-        <v>1.009543231250813</v>
+        <v>1.011822850488038</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.035557259621319</v>
+        <v>1.035726240327031</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.030739871158727</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.030946455752085</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.0195980408009</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9984026196849948</v>
+        <v>0.9988057519615523</v>
       </c>
       <c r="D3">
-        <v>1.018944905741152</v>
+        <v>1.019055499547681</v>
       </c>
       <c r="E3">
-        <v>1.006107541096225</v>
+        <v>1.006508348222742</v>
       </c>
       <c r="F3">
-        <v>1.025634655076606</v>
+        <v>1.02578778297958</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.043057171019367</v>
+        <v>1.043114631565476</v>
       </c>
       <c r="J3">
-        <v>1.018936925823757</v>
+        <v>1.019329026412452</v>
       </c>
       <c r="K3">
-        <v>1.0293409882679</v>
+        <v>1.029450231868023</v>
       </c>
       <c r="L3">
-        <v>1.016662866725301</v>
+        <v>1.017058625352901</v>
       </c>
       <c r="M3">
-        <v>1.035949714678083</v>
+        <v>1.036101003324212</v>
       </c>
       <c r="N3">
-        <v>1.010200396975766</v>
+        <v>1.01230832742809</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.037024169715331</v>
+        <v>1.037143905106124</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.031814085948698</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.031899918830131</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.019860954972666</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.000771155600436</v>
+        <v>1.001085848245632</v>
       </c>
       <c r="D4">
-        <v>1.020449005620582</v>
+        <v>1.020450373274842</v>
       </c>
       <c r="E4">
-        <v>1.008159416046069</v>
+        <v>1.008472515441924</v>
       </c>
       <c r="F4">
-        <v>1.027349859323786</v>
+        <v>1.027463264116481</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.043430191311739</v>
+        <v>1.043441822135621</v>
       </c>
       <c r="J4">
-        <v>1.020155155688472</v>
+        <v>1.020461818640235</v>
       </c>
       <c r="K4">
-        <v>1.030306738088189</v>
+        <v>1.030308090043015</v>
       </c>
       <c r="L4">
-        <v>1.018160351562515</v>
+        <v>1.018469748947555</v>
       </c>
       <c r="M4">
-        <v>1.037129031891938</v>
+        <v>1.037241156535664</v>
       </c>
       <c r="N4">
-        <v>1.010617631608584</v>
+        <v>1.012616748366517</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.037957524137321</v>
+        <v>1.038046263584044</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.032497873002102</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.032507496410864</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.020025274393148</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.00176017937079</v>
+        <v>1.002038176137573</v>
       </c>
       <c r="D5">
-        <v>1.021079964886067</v>
+        <v>1.021035912697691</v>
       </c>
       <c r="E5">
-        <v>1.009017943380499</v>
+        <v>1.009294612471944</v>
       </c>
       <c r="F5">
-        <v>1.028066811975354</v>
+        <v>1.028163736934489</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.043584958967494</v>
+        <v>1.043577516179</v>
       </c>
       <c r="J5">
-        <v>1.0206648512675</v>
+        <v>1.020935966348351</v>
       </c>
       <c r="K5">
-        <v>1.030712066343389</v>
+        <v>1.030668506486887</v>
       </c>
       <c r="L5">
-        <v>1.018786833275966</v>
+        <v>1.019060319592656</v>
       </c>
       <c r="M5">
-        <v>1.037621483880129</v>
+        <v>1.037717343790917</v>
       </c>
       <c r="N5">
-        <v>1.010792418688677</v>
+        <v>1.01274603120028</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.03834726814286</v>
+        <v>1.03842313505848</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.032791720668191</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.032770296556851</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.020094153412918</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.001929256557006</v>
+        <v>1.002200975801565</v>
       </c>
       <c r="D6">
-        <v>1.021190458012555</v>
+        <v>1.021138689854927</v>
       </c>
       <c r="E6">
-        <v>1.009165245263408</v>
+        <v>1.009435679784362</v>
       </c>
       <c r="F6">
-        <v>1.028188536229256</v>
+        <v>1.028282644866487</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.043612911656723</v>
+        <v>1.043602217799798</v>
       </c>
       <c r="J6">
-        <v>1.020753608994484</v>
+        <v>1.021018636500151</v>
       </c>
       <c r="K6">
-        <v>1.030784663458981</v>
+        <v>1.030733471238969</v>
       </c>
       <c r="L6">
-        <v>1.018895193509465</v>
+        <v>1.019162531452343</v>
       </c>
       <c r="M6">
-        <v>1.037705541378828</v>
+        <v>1.037798620635969</v>
       </c>
       <c r="N6">
-        <v>1.010823185109579</v>
+        <v>1.012768832413204</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.038413794213563</v>
+        <v>1.038487460415038</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.03285188365278</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.032825930298633</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.020107060925245</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,105 +749,123 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.000794021480286</v>
+        <v>1.001115820579665</v>
       </c>
       <c r="D7">
-        <v>1.020470503042795</v>
+        <v>1.020476460328669</v>
       </c>
       <c r="E7">
-        <v>1.008180479280899</v>
+        <v>1.008500650510106</v>
       </c>
       <c r="F7">
-        <v>1.027363933038369</v>
+        <v>1.02748043950695</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.043438159606376</v>
+        <v>1.043451939579397</v>
       </c>
       <c r="J7">
-        <v>1.020171354631502</v>
+        <v>1.020484946300765</v>
       </c>
       <c r="K7">
-        <v>1.030325068053034</v>
+        <v>1.030330956981452</v>
       </c>
       <c r="L7">
-        <v>1.01817819701728</v>
+        <v>1.018494584118457</v>
       </c>
       <c r="M7">
-        <v>1.037140052234788</v>
+        <v>1.037255244029798</v>
       </c>
       <c r="N7">
-        <v>1.010624094136376</v>
+        <v>1.012649737443929</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.037966246030648</v>
+        <v>1.03805741292915</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.032531143653977</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.032545971265029</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.020031643749769</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9959575891994953</v>
+        <v>0.9964775462602341</v>
       </c>
       <c r="D8">
-        <v>1.017403518791724</v>
+        <v>1.017644722239255</v>
       </c>
       <c r="E8">
-        <v>1.003995681815389</v>
+        <v>1.00451224816294</v>
       </c>
       <c r="F8">
-        <v>1.023866254026239</v>
+        <v>1.024071637770993</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.04266958695842</v>
+        <v>1.042782590263369</v>
       </c>
       <c r="J8">
-        <v>1.017683706592984</v>
+        <v>1.018188423179639</v>
       </c>
       <c r="K8">
-        <v>1.028352797767465</v>
+        <v>1.028590873342201</v>
       </c>
       <c r="L8">
-        <v>1.015121799718385</v>
+        <v>1.015631443129591</v>
       </c>
       <c r="M8">
-        <v>1.034732362064636</v>
+        <v>1.034935124166618</v>
       </c>
       <c r="N8">
-        <v>1.009772203245424</v>
+        <v>1.012077624444479</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.03606071141446</v>
+        <v>1.036221185001604</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.031141170036506</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.031320640982176</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.019697920294312</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.987087834147546</v>
+        <v>0.9879537462883276</v>
       </c>
       <c r="D9">
-        <v>1.01179672181973</v>
+        <v>1.012456232617038</v>
       </c>
       <c r="E9">
-        <v>0.9963660182325382</v>
+        <v>0.997223765006595</v>
       </c>
       <c r="F9">
-        <v>1.017509194975325</v>
+        <v>1.017870018141384</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.041179075853985</v>
+        <v>1.041467441252439</v>
       </c>
       <c r="J9">
-        <v>1.013104941019432</v>
+        <v>1.013939179691824</v>
       </c>
       <c r="K9">
-        <v>1.024701261546332</v>
+        <v>1.025350397853068</v>
       </c>
       <c r="L9">
-        <v>1.009518330697512</v>
+        <v>1.010362045851084</v>
       </c>
       <c r="M9">
-        <v>1.030324444343445</v>
+        <v>1.030679670557712</v>
       </c>
       <c r="N9">
-        <v>1.008201153265152</v>
+        <v>1.010928640180061</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.032572109802721</v>
+        <v>1.032853250615097</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.028556028383424</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.029025880903949</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.019053174595639</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9809934170825549</v>
+        <v>0.9821381671289242</v>
       </c>
       <c r="D10">
-        <v>1.007977035873139</v>
+        <v>1.008951393489609</v>
       </c>
       <c r="E10">
-        <v>0.9911656464524525</v>
+        <v>0.9922971004539241</v>
       </c>
       <c r="F10">
-        <v>1.013356509099888</v>
+        <v>1.013842269896866</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.040134125681579</v>
+        <v>1.040555228712942</v>
       </c>
       <c r="J10">
-        <v>1.009981966385767</v>
+        <v>1.011078834174612</v>
       </c>
       <c r="K10">
-        <v>1.022203740823683</v>
+        <v>1.023160886985043</v>
       </c>
       <c r="L10">
-        <v>1.005696261141078</v>
+        <v>1.006806839988347</v>
       </c>
       <c r="M10">
-        <v>1.027488723735406</v>
+        <v>1.02796601606722</v>
       </c>
       <c r="N10">
-        <v>1.007133488310367</v>
+        <v>1.010269681161852</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.03037974730094</v>
+        <v>1.030757473473068</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.026807089774546</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.027496410061825</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.018612027921721</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9787736304386965</v>
+        <v>0.9800616394552476</v>
       </c>
       <c r="D11">
-        <v>1.006663069060126</v>
+        <v>1.00777591393333</v>
       </c>
       <c r="E11">
-        <v>0.9893444726991369</v>
+        <v>0.9906162536485802</v>
       </c>
       <c r="F11">
-        <v>1.013248052876918</v>
+        <v>1.013795695869712</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.039946178750915</v>
+        <v>1.040424759605342</v>
       </c>
       <c r="J11">
-        <v>1.009056911293356</v>
+        <v>1.010288062272181</v>
       </c>
       <c r="K11">
-        <v>1.021460414167488</v>
+        <v>1.022552662808147</v>
       </c>
       <c r="L11">
-        <v>1.004470173707694</v>
+        <v>1.005717330226315</v>
       </c>
       <c r="M11">
-        <v>1.027924381463863</v>
+        <v>1.028462052204157</v>
       </c>
       <c r="N11">
-        <v>1.006856061488149</v>
+        <v>1.010313171653564</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.031164446096815</v>
+        <v>1.031589737433881</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.026314743455641</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.02710279753547</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.018522945464356</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.978096337674719</v>
+        <v>0.9794290272404885</v>
       </c>
       <c r="D12">
-        <v>1.006285427180701</v>
+        <v>1.00743873042169</v>
       </c>
       <c r="E12">
-        <v>0.9888157252400821</v>
+        <v>0.9901311353694935</v>
       </c>
       <c r="F12">
-        <v>1.013790494687613</v>
+        <v>1.014356325276502</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.039965834507534</v>
+        <v>1.040459822250083</v>
       </c>
       <c r="J12">
-        <v>1.00885752490416</v>
+        <v>1.010130244329015</v>
       </c>
       <c r="K12">
-        <v>1.021293190972696</v>
+        <v>1.022424790382595</v>
       </c>
       <c r="L12">
-        <v>1.004160381619319</v>
+        <v>1.005449881494441</v>
       </c>
       <c r="M12">
-        <v>1.02865817531274</v>
+        <v>1.029213554116133</v>
       </c>
       <c r="N12">
-        <v>1.006819551211711</v>
+        <v>1.01039538484363</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.032073544393039</v>
+        <v>1.032512691833214</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.026196508625946</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.02701238770851</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.018520139916592</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9785723457787704</v>
+        <v>0.9798641891625106</v>
       </c>
       <c r="D13">
-        <v>1.006617419986942</v>
+        <v>1.007729276892825</v>
       </c>
       <c r="E13">
-        <v>0.9892554981530614</v>
+        <v>0.99053071663513</v>
       </c>
       <c r="F13">
-        <v>1.014895230991903</v>
+        <v>1.015441383452524</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.040158199986036</v>
+        <v>1.040632316822554</v>
       </c>
       <c r="J13">
-        <v>1.00921603325671</v>
+        <v>1.010450035600866</v>
       </c>
       <c r="K13">
-        <v>1.021575317545756</v>
+        <v>1.022666337605431</v>
       </c>
       <c r="L13">
-        <v>1.00454674523249</v>
+        <v>1.005796957682302</v>
       </c>
       <c r="M13">
-        <v>1.029699424377036</v>
+        <v>1.030235550536617</v>
       </c>
       <c r="N13">
-        <v>1.006971528583896</v>
+        <v>1.010480272281907</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.033175092894753</v>
+        <v>1.033598909341682</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.026393463775876</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.027180405579672</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.018587191172645</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9794252146428849</v>
+        <v>0.9806505741237735</v>
       </c>
       <c r="D14">
-        <v>1.007170412443163</v>
+        <v>1.008216996939156</v>
       </c>
       <c r="E14">
-        <v>0.9899993428622346</v>
+        <v>0.9912092722926474</v>
       </c>
       <c r="F14">
-        <v>1.015910323636776</v>
+        <v>1.016426116880105</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.040368919494112</v>
+        <v>1.040813718821037</v>
       </c>
       <c r="J14">
-        <v>1.009716622979301</v>
+        <v>1.010887910316015</v>
       </c>
       <c r="K14">
-        <v>1.021975153590101</v>
+        <v>1.023002366602198</v>
       </c>
       <c r="L14">
-        <v>1.005129573922927</v>
+        <v>1.006316084364038</v>
       </c>
       <c r="M14">
-        <v>1.03055488897007</v>
+        <v>1.031061341241348</v>
       </c>
       <c r="N14">
-        <v>1.007162393386271</v>
+        <v>1.010541519833551</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.034025439563225</v>
+        <v>1.034425743930854</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.026677608494973</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.027419568272856</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.018665774911474</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9798911553997909</v>
+        <v>0.9810822160109588</v>
       </c>
       <c r="D15">
-        <v>1.007467523216316</v>
+        <v>1.008480596003608</v>
       </c>
       <c r="E15">
-        <v>0.9903992448435804</v>
+        <v>0.9915755051006315</v>
       </c>
       <c r="F15">
-        <v>1.01631266574224</v>
+        <v>1.016813088243056</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.040463686941691</v>
+        <v>1.04089386496152</v>
       </c>
       <c r="J15">
-        <v>1.009968775823022</v>
+        <v>1.011107740883864</v>
       </c>
       <c r="K15">
-        <v>1.022178820924262</v>
+        <v>1.023173284433864</v>
       </c>
       <c r="L15">
-        <v>1.005431568522852</v>
+        <v>1.006585241103942</v>
       </c>
       <c r="M15">
-        <v>1.030863112805501</v>
+        <v>1.031354543695916</v>
       </c>
       <c r="N15">
-        <v>1.007253155811754</v>
+        <v>1.010562482633049</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.034306745682865</v>
+        <v>1.034695166752616</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.026827550230275</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.027546921243047</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.018702693124433</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.982372893855761</v>
+        <v>0.9833992147286966</v>
       </c>
       <c r="D16">
-        <v>1.009016674470494</v>
+        <v>1.009866311407255</v>
       </c>
       <c r="E16">
-        <v>0.9925047714444842</v>
+        <v>0.9935192990520846</v>
       </c>
       <c r="F16">
-        <v>1.017905335641276</v>
+        <v>1.018332975058611</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.040882901219492</v>
+        <v>1.041243812320692</v>
       </c>
       <c r="J16">
-        <v>1.011224674867957</v>
+        <v>1.012208368585704</v>
       </c>
       <c r="K16">
-        <v>1.02318881113961</v>
+        <v>1.024023521289489</v>
       </c>
       <c r="L16">
-        <v>1.006973606175092</v>
+        <v>1.007969533719922</v>
       </c>
       <c r="M16">
-        <v>1.0319229069056</v>
+        <v>1.032343198018252</v>
       </c>
       <c r="N16">
-        <v>1.007676961695196</v>
+        <v>1.010649454264274</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.035105526416217</v>
+        <v>1.035437728977128</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.027544867973175</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.028151580782655</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.018870717178254</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9838352511259822</v>
+        <v>0.9847791626767711</v>
       </c>
       <c r="D17">
-        <v>1.00992017271102</v>
+        <v>1.010684855904921</v>
       </c>
       <c r="E17">
-        <v>0.9937367245550549</v>
+        <v>0.9946703239235896</v>
       </c>
       <c r="F17">
-        <v>1.018593855286324</v>
+        <v>1.018985479411064</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.041093465413607</v>
+        <v>1.041419192843333</v>
       </c>
       <c r="J17">
-        <v>1.011929109482367</v>
+        <v>1.012835087864695</v>
       </c>
       <c r="K17">
-        <v>1.023756472698064</v>
+        <v>1.024508099135</v>
       </c>
       <c r="L17">
-        <v>1.007855470184561</v>
+        <v>1.008772451483503</v>
       </c>
       <c r="M17">
-        <v>1.032283536432569</v>
+        <v>1.032668616478452</v>
       </c>
       <c r="N17">
-        <v>1.007903061433452</v>
+        <v>1.010714348542275</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.035260970886137</v>
+        <v>1.035565372743536</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.027948851607903</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.028497064986118</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.018960082906355</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9845381217958011</v>
+        <v>0.9854519985346867</v>
       </c>
       <c r="D18">
-        <v>1.010329974725195</v>
+        <v>1.011062331075456</v>
       </c>
       <c r="E18">
-        <v>0.9943083597044949</v>
+        <v>0.9952125426899104</v>
       </c>
       <c r="F18">
-        <v>1.018458481104609</v>
+        <v>1.018837580374581</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.041127623204434</v>
+        <v>1.041441031652749</v>
       </c>
       <c r="J18">
-        <v>1.012198260785364</v>
+        <v>1.013076106346197</v>
       </c>
       <c r="K18">
-        <v>1.023972750220603</v>
+        <v>1.024692807776989</v>
       </c>
       <c r="L18">
-        <v>1.00822606686889</v>
+        <v>1.009114428767</v>
       </c>
       <c r="M18">
-        <v>1.031966026165238</v>
+        <v>1.032338886266604</v>
       </c>
       <c r="N18">
-        <v>1.007970099080694</v>
+        <v>1.010720456948139</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.034771034851123</v>
+        <v>1.035065838939254</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.028090003169222</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.028614762356242</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.018981501316913</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9845480013700961</v>
+        <v>0.9854727577114859</v>
       </c>
       <c r="D19">
-        <v>1.010297354397755</v>
+        <v>1.011040994927744</v>
       </c>
       <c r="E19">
-        <v>0.9942761502329212</v>
+        <v>0.9951911872730518</v>
       </c>
       <c r="F19">
-        <v>1.017523987814441</v>
+        <v>1.017909078616503</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.041001682863482</v>
+        <v>1.041321517622741</v>
       </c>
       <c r="J19">
-        <v>1.012069625582216</v>
+        <v>1.012958137519691</v>
       </c>
       <c r="K19">
-        <v>1.023877075227897</v>
+        <v>1.024608293452965</v>
       </c>
       <c r="L19">
-        <v>1.00812934333144</v>
+        <v>1.009028454356799</v>
       </c>
       <c r="M19">
-        <v>1.030983978889631</v>
+        <v>1.03136275091258</v>
       </c>
       <c r="N19">
-        <v>1.007896075955139</v>
+        <v>1.010654978836877</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.033666906064835</v>
+        <v>1.033966483507449</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.028028822858475</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.028562096324058</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.018943543736643</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,105 +1555,123 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9825983689016601</v>
+        <v>0.9836461869445796</v>
       </c>
       <c r="D20">
-        <v>1.008998554238415</v>
+        <v>1.0098737272288</v>
       </c>
       <c r="E20">
-        <v>0.9925363177653413</v>
+        <v>0.9935725726509166</v>
       </c>
       <c r="F20">
-        <v>1.014449938139665</v>
+        <v>1.014892265383682</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.040424431088149</v>
+        <v>1.040802802858707</v>
       </c>
       <c r="J20">
-        <v>1.010816976417834</v>
+        <v>1.011822409149935</v>
       </c>
       <c r="K20">
-        <v>1.022884999106108</v>
+        <v>1.023745152857949</v>
       </c>
       <c r="L20">
-        <v>1.006711689036707</v>
+        <v>1.007729390066652</v>
       </c>
       <c r="M20">
-        <v>1.028243374030521</v>
+        <v>1.02867821104881</v>
       </c>
       <c r="N20">
-        <v>1.007421961071643</v>
+        <v>1.010374891821819</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.030966326343546</v>
+        <v>1.031310457857276</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.02733133655222</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.027956165943288</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.018732618830502</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C21">
-        <v>0.9779300818327912</v>
+        <v>0.9793081242908716</v>
       </c>
       <c r="D21">
-        <v>1.006064538923979</v>
+        <v>1.007264555806185</v>
       </c>
       <c r="E21">
-        <v>0.9885520845102487</v>
+        <v>0.9899125722049981</v>
       </c>
       <c r="F21">
-        <v>1.011010637543482</v>
+        <v>1.011601893191415</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.039566971101026</v>
+        <v>1.040086754158134</v>
       </c>
       <c r="J21">
-        <v>1.008380422050337</v>
+        <v>1.009697182610904</v>
       </c>
       <c r="K21">
-        <v>1.020931920483495</v>
+        <v>1.022109593699627</v>
       </c>
       <c r="L21">
-        <v>1.003753636112708</v>
+        <v>1.005087607733306</v>
       </c>
       <c r="M21">
-        <v>1.025786370035723</v>
+        <v>1.026366748098091</v>
       </c>
       <c r="N21">
-        <v>1.006581529550408</v>
+        <v>1.010212868083689</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.028980478923313</v>
+        <v>1.029439816591787</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.025953671886108</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.026803337066608</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.018400143516005</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.974956672286357</v>
+        <v>0.9765451408088541</v>
       </c>
       <c r="D22">
-        <v>1.004198956297808</v>
+        <v>1.005606221495558</v>
       </c>
       <c r="E22">
-        <v>0.9860248343515716</v>
+        <v>0.987591270982389</v>
       </c>
       <c r="F22">
-        <v>1.00892071224058</v>
+        <v>1.009607444071593</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.039019902311938</v>
+        <v>1.039630140020412</v>
       </c>
       <c r="J22">
-        <v>1.006836798500897</v>
+        <v>1.008350460776646</v>
       </c>
       <c r="K22">
-        <v>1.019687687466889</v>
+        <v>1.021067430181455</v>
       </c>
       <c r="L22">
-        <v>1.001878320404732</v>
+        <v>1.003412621309255</v>
       </c>
       <c r="M22">
-        <v>1.02431749556505</v>
+        <v>1.024990948366443</v>
       </c>
       <c r="N22">
-        <v>1.006049941226944</v>
+        <v>1.010104464593814</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.027817943309127</v>
+        <v>1.028350945440467</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.025060256083144</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.026051504049468</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.018186636500618</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9765294432788647</v>
+        <v>0.9779931105782717</v>
       </c>
       <c r="D23">
-        <v>1.005179132870119</v>
+        <v>1.006466898071623</v>
       </c>
       <c r="E23">
-        <v>0.9873596163893982</v>
+        <v>0.9888038677716509</v>
       </c>
       <c r="F23">
-        <v>1.010027423157972</v>
+        <v>1.010657401930733</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.0393063885003</v>
+        <v>1.039864115591193</v>
       </c>
       <c r="J23">
-        <v>1.007649347237809</v>
+        <v>1.009046131876714</v>
       </c>
       <c r="K23">
-        <v>1.020338233144382</v>
+        <v>1.021601454954125</v>
       </c>
       <c r="L23">
-        <v>1.00286698392705</v>
+        <v>1.004282393971579</v>
       </c>
       <c r="M23">
-        <v>1.025094545912826</v>
+        <v>1.025712657902638</v>
       </c>
       <c r="N23">
-        <v>1.006328744015244</v>
+        <v>1.01011629342145</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.02843293736071</v>
+        <v>1.028922139757479</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.025510477502683</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.026418396799356</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.018294094273269</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9826142048961041</v>
+        <v>0.9836623838624593</v>
       </c>
       <c r="D24">
-        <v>1.008992422404036</v>
+        <v>1.009867945621174</v>
       </c>
       <c r="E24">
-        <v>0.9925416301735378</v>
+        <v>0.9935782678995442</v>
       </c>
       <c r="F24">
-        <v>1.014325313482067</v>
+        <v>1.014767992981535</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.040401715423219</v>
+        <v>1.04078050717106</v>
       </c>
       <c r="J24">
-        <v>1.010798331809568</v>
+        <v>1.011804172655698</v>
       </c>
       <c r="K24">
-        <v>1.02286344012811</v>
+        <v>1.023723957188056</v>
       </c>
       <c r="L24">
-        <v>1.006701001479081</v>
+        <v>1.007719102744798</v>
       </c>
       <c r="M24">
-        <v>1.028105445697121</v>
+        <v>1.028540636260078</v>
       </c>
       <c r="N24">
-        <v>1.007410659379756</v>
+        <v>1.01036228746459</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.030815899347756</v>
+        <v>1.031160328124838</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.027288370248181</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.027910790748214</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.018723435675392</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9894376977473606</v>
+        <v>0.9902007564762721</v>
       </c>
       <c r="D25">
-        <v>1.013289088295044</v>
+        <v>1.01383026210089</v>
       </c>
       <c r="E25">
-        <v>0.9983836510436395</v>
+        <v>0.9991401203720227</v>
       </c>
       <c r="F25">
-        <v>1.019182889136029</v>
+        <v>1.019497568591855</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.041589074506345</v>
+        <v>1.041827453631307</v>
       </c>
       <c r="J25">
-        <v>1.014325830033419</v>
+        <v>1.015062465250394</v>
       </c>
       <c r="K25">
-        <v>1.025684552371698</v>
+        <v>1.026217608825211</v>
       </c>
       <c r="L25">
-        <v>1.011007110675443</v>
+        <v>1.011751799546033</v>
       </c>
       <c r="M25">
-        <v>1.031490538955201</v>
+        <v>1.031800566144581</v>
       </c>
       <c r="N25">
-        <v>1.008621832214035</v>
+        <v>1.011203127913549</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.033495005195203</v>
+        <v>1.033740373301397</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.029280190250727</v>
+        <v>1.02967076115616</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.019229355973944</v>
       </c>
     </row>
   </sheetData>
